--- a/Sheets/Pressure_Profile_Without_Inline_Pump.xlsx
+++ b/Sheets/Pressure_Profile_Without_Inline_Pump.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harsh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\Alaska_Pipeline_FM\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F4F555-2A59-4962-8133-EAF60124573E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E328366F-5D6E-4482-ADDA-993A39B47737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,17 +391,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C646"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" customWidth="1"/>
-    <col min="3" max="3" width="52.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -428,1410 +428,7086 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1.9270087363098001</v>
+        <v>0.38540174726196003</v>
       </c>
       <c r="C3">
-        <v>66.118991263690205</v>
+        <v>67.660598252738041</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>3.8540174726196001</v>
+        <v>0.77080349452391994</v>
       </c>
       <c r="C4">
-        <v>64.191982527380404</v>
+        <v>67.275196505476089</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>5.7810262089293998</v>
+        <v>1.1562052417858799</v>
       </c>
       <c r="C5">
-        <v>62.264973791070609</v>
+        <v>66.889794758214123</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>7.7080349452391994</v>
+        <v>1.5416069890478401</v>
       </c>
       <c r="C6">
-        <v>60.337965054760808</v>
+        <v>66.504393010952171</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>9.6350436815489999</v>
+        <v>1.9270087363098001</v>
       </c>
       <c r="C7">
-        <v>58.410956318451007</v>
+        <v>66.118991263690205</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>11.5620524178588</v>
+        <v>2.3124104835717598</v>
       </c>
       <c r="C8">
-        <v>56.483947582141212</v>
+        <v>65.733589516428253</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>13.489061154168599</v>
+        <v>2.69781223083372</v>
       </c>
       <c r="C9">
-        <v>54.556938845831411</v>
+        <v>65.348187769166287</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>15.416069890478401</v>
+        <v>3.0832139780956802</v>
       </c>
       <c r="C10">
-        <v>52.629930109521609</v>
+        <v>64.962786021904321</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>17.343078626788198</v>
+        <v>3.46861572535764</v>
       </c>
       <c r="C11">
-        <v>50.702921373211808</v>
+        <v>64.57738427464237</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>19.270087363098</v>
+        <v>3.8540174726196001</v>
       </c>
       <c r="C12">
-        <v>48.775912636902007</v>
+        <v>64.191982527380404</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>21.197096099407801</v>
+        <v>4.2394192198815608</v>
       </c>
       <c r="C13">
-        <v>46.848903900592212</v>
+        <v>63.806580780118438</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>23.124104835717599</v>
+        <v>4.6248209671435196</v>
       </c>
       <c r="C14">
-        <v>44.921895164282397</v>
+        <v>63.421179032856493</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="B15">
-        <v>25.051113572027401</v>
+        <v>5.0102227144054803</v>
       </c>
       <c r="C15">
-        <v>42.99488642797261</v>
+        <v>63.035777285594527</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="B16">
-        <v>26.978122308337198</v>
+        <v>5.39562446166744</v>
       </c>
       <c r="C16">
-        <v>41.067877691662808</v>
+        <v>62.650375538332568</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="B17">
-        <v>28.905131044647</v>
+        <v>5.7810262089293998</v>
       </c>
       <c r="C17">
-        <v>39.140868955353007</v>
+        <v>62.264973791070609</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="B18">
-        <v>30.832139780956801</v>
+        <v>6.1664279561913604</v>
       </c>
       <c r="C18">
-        <v>37.213860219043212</v>
+        <v>61.879572043808651</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>170</v>
+        <v>34</v>
       </c>
       <c r="B19">
-        <v>32.759148517266603</v>
+        <v>6.5518297034533202</v>
       </c>
       <c r="C19">
-        <v>35.286851482733397</v>
+        <v>61.494170296546677</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>180</v>
+        <v>36</v>
       </c>
       <c r="B20">
-        <v>34.686157253576397</v>
+        <v>6.9372314507152799</v>
       </c>
       <c r="C20">
-        <v>33.35984274642361</v>
+        <v>61.108768549284733</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="B21">
-        <v>36.613165989886198</v>
+        <v>7.3226331979772397</v>
       </c>
       <c r="C21">
-        <v>31.432834010113812</v>
+        <v>60.723366802022767</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="B22">
-        <v>38.540174726196</v>
+        <v>7.7080349452391994</v>
       </c>
       <c r="C22">
-        <v>29.50582527380401</v>
+        <v>60.337965054760808</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="B23">
-        <v>40.467183462505801</v>
+        <v>8.0934366925011592</v>
       </c>
       <c r="C23">
-        <v>27.578816537494209</v>
+        <v>59.952563307498849</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>220</v>
+        <v>44</v>
       </c>
       <c r="B24">
-        <v>42.394192198815603</v>
+        <v>8.4788384397631216</v>
       </c>
       <c r="C24">
-        <v>25.6518078011844</v>
+        <v>59.567161560236883</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>230</v>
+        <v>46</v>
       </c>
       <c r="B25">
-        <v>44.32120093512539</v>
+        <v>8.8642401870250804</v>
       </c>
       <c r="C25">
-        <v>23.72479906487462</v>
+        <v>59.181759812974917</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>240</v>
+        <v>48</v>
       </c>
       <c r="B26">
-        <v>46.248209671435198</v>
+        <v>9.2496419342870393</v>
       </c>
       <c r="C26">
-        <v>21.797790328564808</v>
+        <v>58.796358065712973</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="B27">
-        <v>48.175218407745</v>
+        <v>9.6350436815489999</v>
       </c>
       <c r="C27">
-        <v>19.87078159225501</v>
+        <v>58.410956318451007</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>260</v>
+        <v>52</v>
       </c>
       <c r="B28">
-        <v>50.102227144054787</v>
+        <v>10.020445428810961</v>
       </c>
       <c r="C28">
-        <v>17.943772855945209</v>
+        <v>58.025554571189048</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>270</v>
+        <v>54</v>
       </c>
       <c r="B29">
-        <v>52.029235880364602</v>
+        <v>10.405847176072919</v>
       </c>
       <c r="C29">
-        <v>16.0167641196354</v>
+        <v>57.640152823927089</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>280</v>
+        <v>56</v>
       </c>
       <c r="B30">
-        <v>53.956244616674397</v>
+        <v>10.79124892333488</v>
       </c>
       <c r="C30">
-        <v>14.08975538332561</v>
+        <v>57.25475107666513</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>290</v>
+        <v>58</v>
       </c>
       <c r="B31">
-        <v>55.883253352984198</v>
+        <v>11.176650670596841</v>
       </c>
       <c r="C31">
-        <v>12.16274664701581</v>
+        <v>56.869349329403157</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="B32">
-        <v>57.810262089294</v>
+        <v>11.5620524178588</v>
       </c>
       <c r="C32">
-        <v>10.23573791070601</v>
+        <v>56.483947582141212</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>310</v>
+        <v>62</v>
       </c>
       <c r="B33">
-        <v>59.737270825603801</v>
+        <v>11.94745416512076</v>
       </c>
       <c r="C33">
-        <v>8.3087291743962055</v>
+        <v>56.098545834879253</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>320</v>
+        <v>64</v>
       </c>
       <c r="B34">
-        <v>61.664279561913602</v>
+        <v>12.332855912382721</v>
       </c>
       <c r="C34">
-        <v>6.3817204380864112</v>
+        <v>55.713144087617287</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>330</v>
+        <v>66</v>
       </c>
       <c r="B35">
-        <v>63.591288298223397</v>
+        <v>12.71825765964468</v>
       </c>
       <c r="C35">
-        <v>4.4547117017766098</v>
+        <v>55.327742340355329</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>340</v>
+        <v>68</v>
       </c>
       <c r="B36">
-        <v>65.518297034533205</v>
+        <v>13.10365940690664</v>
       </c>
       <c r="C36">
-        <v>2.5277029654668008</v>
+        <v>54.942340593093363</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="B37">
-        <v>67.445305770842992</v>
+        <v>13.489061154168599</v>
       </c>
       <c r="C37">
-        <v>0.60069422915701409</v>
+        <v>54.556938845831411</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>360</v>
+        <v>72</v>
       </c>
       <c r="B38">
-        <v>69.372314507152794</v>
+        <v>13.87446290143056</v>
       </c>
       <c r="C38">
-        <v>-1.3263145071527871</v>
+        <v>54.171537098569438</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>370</v>
+        <v>74</v>
       </c>
       <c r="B39">
-        <v>71.299323243462595</v>
+        <v>14.25986464869252</v>
       </c>
       <c r="C39">
-        <v>-3.2533232434625892</v>
+        <v>53.786135351307493</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>380</v>
+        <v>76</v>
       </c>
       <c r="B40">
-        <v>73.226331979772397</v>
+        <v>14.645266395954479</v>
       </c>
       <c r="C40">
-        <v>-5.1803319797723901</v>
+        <v>53.400733604045527</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="B41">
-        <v>75.153340716082212</v>
+        <v>15.03066814321644</v>
       </c>
       <c r="C41">
-        <v>-7.1073407160822057</v>
+        <v>53.015331856783568</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="B42">
-        <v>77.080349452391999</v>
+        <v>15.416069890478401</v>
       </c>
       <c r="C42">
-        <v>-9.0343494523919929</v>
+        <v>52.629930109521609</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>410</v>
+        <v>82</v>
       </c>
       <c r="B43">
-        <v>79.007358188701801</v>
+        <v>15.801471637740359</v>
       </c>
       <c r="C43">
-        <v>-10.961358188701791</v>
+        <v>52.244528362259643</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>420</v>
+        <v>84</v>
       </c>
       <c r="B44">
-        <v>80.934366925011602</v>
+        <v>16.186873385002318</v>
       </c>
       <c r="C44">
-        <v>-12.888366925011599</v>
+        <v>51.859126614997692</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>430</v>
+        <v>86</v>
       </c>
       <c r="B45">
-        <v>82.861375661321389</v>
+        <v>16.572275132264281</v>
       </c>
       <c r="C45">
-        <v>-14.815375661321379</v>
+        <v>51.473724867735733</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>440</v>
+        <v>88</v>
       </c>
       <c r="B46">
-        <v>84.788384397631205</v>
+        <v>16.95767687952624</v>
       </c>
       <c r="C46">
-        <v>-16.742384397631199</v>
+        <v>51.08832312047376</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="B47">
-        <v>86.715393133940992</v>
+        <v>17.343078626788198</v>
       </c>
       <c r="C47">
-        <v>-18.669393133940989</v>
+        <v>50.702921373211808</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>460</v>
+        <v>92</v>
       </c>
       <c r="B48">
-        <v>88.642401870250779</v>
+        <v>17.728480374050161</v>
       </c>
       <c r="C48">
-        <v>-20.596401870250769</v>
+        <v>50.317519625949842</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>470</v>
+        <v>94</v>
       </c>
       <c r="B49">
-        <v>90.569410606560595</v>
+        <v>18.11388212131212</v>
       </c>
       <c r="C49">
-        <v>-22.523410606560589</v>
+        <v>49.93211787868789</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>480</v>
+        <v>96</v>
       </c>
       <c r="B50">
-        <v>92.496419342870396</v>
+        <v>18.499283868574079</v>
       </c>
       <c r="C50">
-        <v>-24.45041934287039</v>
+        <v>49.546716131425917</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>490</v>
+        <v>98</v>
       </c>
       <c r="B51">
-        <v>94.423428079180198</v>
+        <v>18.884685615836041</v>
       </c>
       <c r="C51">
-        <v>-26.377428079180191</v>
+        <v>49.161314384163973</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="B52">
-        <v>96.350436815489999</v>
+        <v>19.270087363098</v>
       </c>
       <c r="C52">
-        <v>-28.304436815489989</v>
+        <v>48.775912636902007</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>510</v>
+        <v>102</v>
       </c>
       <c r="B53">
-        <v>98.277445551799801</v>
+        <v>19.655489110359959</v>
       </c>
       <c r="C53">
-        <v>-30.231445551799791</v>
+        <v>48.390510889640048</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>520</v>
+        <v>104</v>
       </c>
       <c r="B54">
-        <v>100.2044542881096</v>
+        <v>20.040890857621921</v>
       </c>
       <c r="C54">
-        <v>-32.158454288109581</v>
+        <v>48.005109142378089</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>530</v>
+        <v>106</v>
       </c>
       <c r="B55">
-        <v>102.1314630244194</v>
+        <v>20.42629260488388</v>
       </c>
       <c r="C55">
-        <v>-34.085463024419397</v>
+        <v>47.61970739511613</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>540</v>
+        <v>108</v>
       </c>
       <c r="B56">
-        <v>104.0584717607292</v>
+        <v>20.811694352145839</v>
       </c>
       <c r="C56">
-        <v>-36.012471760729198</v>
+        <v>47.234305647854171</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>550</v>
+        <v>110</v>
       </c>
       <c r="B57">
-        <v>105.98548049703901</v>
+        <v>21.197096099407801</v>
       </c>
       <c r="C57">
-        <v>-37.939480497038993</v>
+        <v>46.848903900592212</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>560</v>
+        <v>112</v>
       </c>
       <c r="B58">
-        <v>107.91248923334879</v>
+        <v>21.58249784666976</v>
       </c>
       <c r="C58">
-        <v>-39.866489233348787</v>
+        <v>46.463502153330253</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>570</v>
+        <v>114</v>
       </c>
       <c r="B59">
-        <v>109.83949796965859</v>
+        <v>21.967899593931719</v>
       </c>
       <c r="C59">
-        <v>-41.793497969658567</v>
+        <v>46.078100406068287</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>580</v>
+        <v>116</v>
       </c>
       <c r="B60">
-        <v>111.7665067059684</v>
+        <v>22.353301341193681</v>
       </c>
       <c r="C60">
-        <v>-43.72050670596839</v>
+        <v>45.692698658806322</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>590</v>
+        <v>118</v>
       </c>
       <c r="B61">
-        <v>113.6935154422782</v>
+        <v>22.73870308845564</v>
       </c>
       <c r="C61">
-        <v>-45.647515442278191</v>
+        <v>45.30729691154437</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="B62">
-        <v>115.620524178588</v>
+        <v>23.124104835717599</v>
       </c>
       <c r="C62">
-        <v>-47.574524178587993</v>
+        <v>44.921895164282397</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>610</v>
+        <v>122</v>
       </c>
       <c r="B63">
-        <v>117.5475329148978</v>
+        <v>23.509506582979562</v>
       </c>
       <c r="C63">
-        <v>-49.50153291489778</v>
+        <v>44.536493417020438</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>620</v>
+        <v>124</v>
       </c>
       <c r="B64">
-        <v>119.4745416512076</v>
+        <v>23.89490833024152</v>
       </c>
       <c r="C64">
-        <v>-51.428541651207603</v>
+        <v>44.151091669758493</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>630</v>
+        <v>126</v>
       </c>
       <c r="B65">
-        <v>121.4015503875174</v>
+        <v>24.280310077503479</v>
       </c>
       <c r="C65">
-        <v>-53.355550387517383</v>
+        <v>43.765689922496527</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>640</v>
+        <v>128</v>
       </c>
       <c r="B66">
-        <v>123.3285591238272</v>
+        <v>24.665711824765442</v>
       </c>
       <c r="C66">
-        <v>-55.282559123827177</v>
+        <v>43.380288175234568</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>650</v>
+        <v>130</v>
       </c>
       <c r="B67">
-        <v>125.25556786013701</v>
+        <v>25.051113572027401</v>
       </c>
       <c r="C67">
-        <v>-57.209567860137</v>
+        <v>42.99488642797261</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>660</v>
+        <v>132</v>
       </c>
       <c r="B68">
-        <v>127.18257659644679</v>
+        <v>25.436515319289359</v>
       </c>
       <c r="C68">
-        <v>-59.136576596446787</v>
+        <v>42.609484680710651</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>670</v>
+        <v>134</v>
       </c>
       <c r="B69">
-        <v>129.10958533275661</v>
+        <v>25.821917066551311</v>
       </c>
       <c r="C69">
-        <v>-61.063585332756602</v>
+        <v>42.224082933448692</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>680</v>
+        <v>136</v>
       </c>
       <c r="B70">
-        <v>131.03659406906641</v>
+        <v>26.207318813813281</v>
       </c>
       <c r="C70">
-        <v>-62.990594069066397</v>
+        <v>41.838681186186733</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>690</v>
+        <v>138</v>
       </c>
       <c r="B71">
-        <v>132.96360280537621</v>
+        <v>26.59272056107524</v>
       </c>
       <c r="C71">
-        <v>-64.917602805376177</v>
+        <v>41.453279438924767</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>700</v>
+        <v>140</v>
       </c>
       <c r="B72">
-        <v>134.89061154168601</v>
+        <v>26.978122308337198</v>
       </c>
       <c r="C72">
-        <v>-66.844611541685978</v>
+        <v>41.067877691662808</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>710</v>
+        <v>142</v>
       </c>
       <c r="B73">
-        <v>136.81762027799579</v>
+        <v>27.363524055599161</v>
       </c>
       <c r="C73">
-        <v>-68.77162027799578</v>
+        <v>40.682475944400849</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>720</v>
+        <v>144</v>
       </c>
       <c r="B74">
-        <v>138.74462901430559</v>
+        <v>27.74892580286112</v>
       </c>
       <c r="C74">
-        <v>-70.698629014305581</v>
+        <v>40.297074197138883</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>730</v>
+        <v>146</v>
       </c>
       <c r="B75">
-        <v>140.67163775061539</v>
+        <v>28.134327550123071</v>
       </c>
       <c r="C75">
-        <v>-72.625637750615383</v>
+        <v>39.911672449876932</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>740</v>
+        <v>148</v>
       </c>
       <c r="B76">
-        <v>142.59864648692519</v>
+        <v>28.519729297385041</v>
       </c>
       <c r="C76">
-        <v>-74.552646486925184</v>
+        <v>39.526270702614973</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="B77">
-        <v>144.52565522323499</v>
+        <v>28.905131044647</v>
       </c>
       <c r="C77">
-        <v>-76.479655223234985</v>
+        <v>39.140868955353007</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>760</v>
+        <v>152</v>
       </c>
       <c r="B78">
-        <v>146.45266395954479</v>
+        <v>29.290532791908959</v>
       </c>
       <c r="C78">
-        <v>-78.406663959544787</v>
+        <v>38.755467208091048</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>770</v>
+        <v>154</v>
       </c>
       <c r="B79">
-        <v>148.37967269585459</v>
+        <v>29.675934539170921</v>
       </c>
       <c r="C79">
-        <v>-80.333672695854588</v>
+        <v>38.370065460829089</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>780</v>
+        <v>156</v>
       </c>
       <c r="B80">
-        <v>150.3066814321644</v>
+        <v>30.06133628643288</v>
       </c>
       <c r="C80">
-        <v>-82.260681432164418</v>
+        <v>37.98466371356713</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>790</v>
+        <v>158</v>
       </c>
       <c r="B81">
-        <v>152.2336901684742</v>
+        <v>30.446738033694839</v>
       </c>
       <c r="C81">
-        <v>-84.187690168474191</v>
+        <v>37.599261966305171</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="B82">
-        <v>154.160698904784</v>
+        <v>30.832139780956801</v>
       </c>
       <c r="C82">
-        <v>-86.114698904783992</v>
+        <v>37.213860219043212</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>810</v>
+        <v>162</v>
       </c>
       <c r="B83">
-        <v>156.0877076410938</v>
+        <v>31.21754152821876</v>
       </c>
       <c r="C83">
-        <v>-88.041707641093765</v>
+        <v>36.828458471781254</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>820</v>
+        <v>164</v>
       </c>
       <c r="B84">
-        <v>158.0147163774036</v>
+        <v>31.602943275480719</v>
       </c>
       <c r="C84">
-        <v>-89.968716377403595</v>
+        <v>36.44305672451928</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>830</v>
+        <v>166</v>
       </c>
       <c r="B85">
-        <v>159.9417251137134</v>
+        <v>31.988345022742681</v>
       </c>
       <c r="C85">
-        <v>-91.895725113713397</v>
+        <v>36.057654977257329</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>840</v>
+        <v>168</v>
       </c>
       <c r="B86">
-        <v>161.8687338500232</v>
+        <v>32.373746770004637</v>
       </c>
       <c r="C86">
-        <v>-93.822733850023198</v>
+        <v>35.67225322999537</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>850</v>
+        <v>170</v>
       </c>
       <c r="B87">
-        <v>163.79574258633301</v>
+        <v>32.759148517266603</v>
       </c>
       <c r="C87">
-        <v>-95.749742586332971</v>
+        <v>35.286851482733397</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>860</v>
+        <v>172</v>
       </c>
       <c r="B88">
-        <v>165.72275132264281</v>
+        <v>33.144550264528547</v>
       </c>
       <c r="C88">
-        <v>-97.676751322642772</v>
+        <v>34.901449735471452</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>870</v>
+        <v>174</v>
       </c>
       <c r="B89">
-        <v>167.64976005895261</v>
+        <v>33.52995201179052</v>
       </c>
       <c r="C89">
-        <v>-99.603760058952602</v>
+        <v>34.516047988209493</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>880</v>
+        <v>176</v>
       </c>
       <c r="B90">
-        <v>169.57676879526241</v>
+        <v>33.915353759052493</v>
       </c>
       <c r="C90">
-        <v>-101.5307687952624</v>
+        <v>34.13064624094752</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>890</v>
+        <v>178</v>
       </c>
       <c r="B91">
-        <v>171.50377753157221</v>
+        <v>34.300755506314438</v>
       </c>
       <c r="C91">
-        <v>-103.45777753157221</v>
+        <v>33.745244493685568</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>900</v>
+        <v>180</v>
       </c>
       <c r="B92">
-        <v>173.43078626788201</v>
+        <v>34.686157253576397</v>
       </c>
       <c r="C92">
-        <v>-105.38478626788201</v>
+        <v>33.35984274642361</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>910</v>
+        <v>182</v>
       </c>
       <c r="B93">
-        <v>175.35779500419179</v>
+        <v>35.071559000838363</v>
       </c>
       <c r="C93">
-        <v>-107.31179500419179</v>
+        <v>32.974440999161637</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>920</v>
+        <v>184</v>
       </c>
       <c r="B94">
-        <v>177.28480374050159</v>
+        <v>35.456960748100322</v>
       </c>
       <c r="C94">
-        <v>-109.2388037405016</v>
+        <v>32.589039251899678</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>930</v>
+        <v>186</v>
       </c>
       <c r="B95">
-        <v>179.21181247681139</v>
+        <v>35.842362495362281</v>
       </c>
       <c r="C95">
-        <v>-111.1658124768114</v>
+        <v>32.203637504637733</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>940</v>
+        <v>188</v>
       </c>
       <c r="B96">
-        <v>181.13882121312119</v>
+        <v>36.227764242624239</v>
       </c>
       <c r="C96">
-        <v>-113.0928212131212</v>
+        <v>31.818235757375771</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>950</v>
+        <v>190</v>
       </c>
       <c r="B97">
-        <v>183.06582994943099</v>
+        <v>36.613165989886198</v>
       </c>
       <c r="C97">
-        <v>-115.019829949431</v>
+        <v>31.432834010113812</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>960</v>
+        <v>192</v>
       </c>
       <c r="B98">
-        <v>184.99283868574079</v>
+        <v>36.998567737148157</v>
       </c>
       <c r="C98">
-        <v>-116.9468386857408</v>
+        <v>31.047432262851849</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>970</v>
+        <v>194</v>
       </c>
       <c r="B99">
-        <v>186.91984742205059</v>
+        <v>37.383969484410123</v>
       </c>
       <c r="C99">
-        <v>-118.8738474220506</v>
+        <v>30.66203051558989</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>980</v>
+        <v>196</v>
       </c>
       <c r="B100">
-        <v>188.8468561583604</v>
+        <v>37.769371231672082</v>
       </c>
       <c r="C100">
-        <v>-120.8008561583604</v>
+        <v>30.276628768327921</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>990</v>
+        <v>198</v>
       </c>
       <c r="B101">
-        <v>190.7738648946702</v>
+        <v>38.154772978934027</v>
       </c>
       <c r="C101">
-        <v>-122.7278648946702</v>
+        <v>29.891227021065969</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="B102">
-        <v>192.70087363098</v>
+        <v>38.540174726196</v>
       </c>
       <c r="C102">
-        <v>-124.65487363098001</v>
+        <v>29.50582527380401</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>1010</v>
+        <v>202</v>
       </c>
       <c r="B103">
-        <v>194.6278823672898</v>
+        <v>38.925576473457959</v>
       </c>
       <c r="C103">
-        <v>-126.58188236728979</v>
+        <v>29.120423526542051</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>1020</v>
+        <v>204</v>
       </c>
       <c r="B104">
-        <v>196.5548911035996</v>
+        <v>39.310978220719917</v>
       </c>
       <c r="C104">
-        <v>-128.50889110359961</v>
+        <v>28.735021779280089</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>1030</v>
+        <v>206</v>
       </c>
       <c r="B105">
-        <v>198.4818998399094</v>
+        <v>39.696379967981883</v>
       </c>
       <c r="C105">
-        <v>-130.43589983990941</v>
+        <v>28.34962003201813</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>1040</v>
+        <v>208</v>
       </c>
       <c r="B106">
-        <v>200.4089085762192</v>
+        <v>40.081781715243842</v>
       </c>
       <c r="C106">
-        <v>-132.36290857621921</v>
+        <v>27.964218284756161</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>1050</v>
+        <v>210</v>
       </c>
       <c r="B107">
-        <v>202.33591731252901</v>
+        <v>40.467183462505801</v>
       </c>
       <c r="C107">
-        <v>-134.28991731252901</v>
+        <v>27.578816537494209</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>1060</v>
+        <v>212</v>
       </c>
       <c r="B108">
-        <v>204.26292604883881</v>
+        <v>40.852585209767753</v>
       </c>
       <c r="C108">
-        <v>-136.21692604883879</v>
+        <v>27.19341479023225</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>1070</v>
+        <v>214</v>
       </c>
       <c r="B109">
-        <v>206.18993478514861</v>
+        <v>41.237986957029719</v>
       </c>
       <c r="C109">
-        <v>-138.14393478514859</v>
+        <v>26.808013042970291</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>1080</v>
+        <v>216</v>
       </c>
       <c r="B110">
-        <v>208.11694352145841</v>
+        <v>41.623388704291678</v>
       </c>
       <c r="C110">
-        <v>-140.07094352145839</v>
+        <v>26.422611295708329</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>1090</v>
+        <v>218</v>
       </c>
       <c r="B111">
-        <v>210.04395225776821</v>
+        <v>42.008790451553637</v>
       </c>
       <c r="C111">
-        <v>-141.99795225776819</v>
+        <v>26.03720954844637</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>1100</v>
+        <v>220</v>
       </c>
       <c r="B112">
-        <v>211.97096099407801</v>
+        <v>42.394192198815603</v>
       </c>
       <c r="C112">
-        <v>-143.92496099407799</v>
+        <v>25.6518078011844</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>1110</v>
+        <v>222</v>
       </c>
       <c r="B113">
-        <v>213.89796973038781</v>
+        <v>42.779593946077547</v>
       </c>
       <c r="C113">
-        <v>-145.85196973038779</v>
+        <v>25.266406053922449</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>1120</v>
+        <v>224</v>
       </c>
       <c r="B114">
-        <v>215.82497846669759</v>
+        <v>43.16499569333952</v>
       </c>
       <c r="C114">
-        <v>-147.77897846669759</v>
+        <v>24.88100430666049</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>1130</v>
+        <v>226</v>
       </c>
       <c r="B115">
-        <v>217.75198720300739</v>
+        <v>43.550397440601479</v>
       </c>
       <c r="C115">
-        <v>-149.7059872030074</v>
+        <v>24.495602559398531</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>1140</v>
+        <v>228</v>
       </c>
       <c r="B116">
-        <v>219.67899593931719</v>
+        <v>43.935799187863438</v>
       </c>
       <c r="C116">
-        <v>-151.63299593931711</v>
+        <v>24.110200812136569</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>1150</v>
+        <v>230</v>
       </c>
       <c r="B117">
-        <v>221.60600467562699</v>
+        <v>44.32120093512539</v>
       </c>
       <c r="C117">
-        <v>-153.560004675627</v>
+        <v>23.72479906487462</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>1160</v>
+        <v>232</v>
       </c>
       <c r="B118">
-        <v>223.53301341193679</v>
+        <v>44.706602682387363</v>
       </c>
       <c r="C118">
-        <v>-155.4870134119368</v>
+        <v>23.33939731761264</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>1170</v>
+        <v>234</v>
       </c>
       <c r="B119">
-        <v>225.46002214824659</v>
+        <v>45.092004429649322</v>
       </c>
       <c r="C119">
-        <v>-157.4140221482466</v>
+        <v>22.953995570350681</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>1180</v>
+        <v>236</v>
       </c>
       <c r="B120">
-        <v>227.3870308845564</v>
+        <v>45.477406176911273</v>
       </c>
       <c r="C120">
-        <v>-159.3410308845564</v>
+        <v>22.56859382308873</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>1190</v>
+        <v>238</v>
       </c>
       <c r="B121">
-        <v>229.3140396208662</v>
+        <v>45.862807924173246</v>
       </c>
       <c r="C121">
-        <v>-161.2680396208662</v>
+        <v>22.18319207582676</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="B122">
-        <v>231.241048357176</v>
+        <v>46.248209671435198</v>
       </c>
       <c r="C122">
-        <v>-163.19504835717601</v>
+        <v>21.797790328564808</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>1210</v>
+        <v>242</v>
       </c>
       <c r="B123">
-        <v>233.1680570934858</v>
+        <v>46.633611418697157</v>
       </c>
       <c r="C123">
-        <v>-165.12205709348581</v>
+        <v>21.412388581302849</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>1220</v>
+        <v>244</v>
       </c>
       <c r="B124">
-        <v>235.0950658297956</v>
+        <v>47.019013165959123</v>
       </c>
       <c r="C124">
-        <v>-167.04906582979561</v>
+        <v>21.02698683404088</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>1230</v>
+        <v>246</v>
       </c>
       <c r="B125">
-        <v>237.0220745661054</v>
+        <v>47.404414913221068</v>
       </c>
       <c r="C125">
-        <v>-168.97607456610541</v>
+        <v>20.641585086778932</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>1240</v>
+        <v>248</v>
       </c>
       <c r="B126">
-        <v>238.9490833024152</v>
+        <v>47.789816660483041</v>
       </c>
       <c r="C126">
-        <v>-170.90308330241521</v>
+        <v>20.256183339516969</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>1250</v>
+        <v>250</v>
       </c>
       <c r="B127">
-        <v>240.87609203872501</v>
+        <v>48.175218407745</v>
       </c>
       <c r="C127">
-        <v>-172.83009203872501</v>
+        <v>19.87078159225501</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>1260</v>
+        <v>252</v>
       </c>
       <c r="B128">
-        <v>242.80310077503481</v>
+        <v>48.560620155006958</v>
       </c>
       <c r="C128">
-        <v>-174.75710077503479</v>
+        <v>19.485379844993052</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>1270</v>
+        <v>254</v>
       </c>
       <c r="B129">
-        <v>244.73010951134461</v>
+        <v>48.94602190226891</v>
       </c>
       <c r="C129">
-        <v>-176.68410951134459</v>
+        <v>19.0999780977311</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
+        <v>256</v>
+      </c>
+      <c r="B130">
+        <v>49.331423649530883</v>
+      </c>
+      <c r="C130">
+        <v>18.71457635046913</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>258</v>
+      </c>
+      <c r="B131">
+        <v>49.716825396792842</v>
+      </c>
+      <c r="C131">
+        <v>18.329174603207161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>260</v>
+      </c>
+      <c r="B132">
+        <v>50.102227144054787</v>
+      </c>
+      <c r="C132">
+        <v>17.943772855945209</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>262</v>
+      </c>
+      <c r="B133">
+        <v>50.48762889131676</v>
+      </c>
+      <c r="C133">
+        <v>17.55837110868325</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>264</v>
+      </c>
+      <c r="B134">
+        <v>50.873030638578719</v>
+      </c>
+      <c r="C134">
+        <v>17.172969361421291</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>266</v>
+      </c>
+      <c r="B135">
+        <v>51.258432385840678</v>
+      </c>
+      <c r="C135">
+        <v>16.787567614159329</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>268</v>
+      </c>
+      <c r="B136">
+        <v>51.643834133102629</v>
+      </c>
+      <c r="C136">
+        <v>16.402165866897381</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>270</v>
+      </c>
+      <c r="B137">
+        <v>52.029235880364602</v>
+      </c>
+      <c r="C137">
+        <v>16.0167641196354</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>272</v>
+      </c>
+      <c r="B138">
+        <v>52.414637627626561</v>
+      </c>
+      <c r="C138">
+        <v>15.63136237237345</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>274</v>
+      </c>
+      <c r="B139">
+        <v>52.800039374888513</v>
+      </c>
+      <c r="C139">
+        <v>15.24596062511149</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>276</v>
+      </c>
+      <c r="B140">
+        <v>53.185441122150479</v>
+      </c>
+      <c r="C140">
+        <v>14.860558877849529</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>278</v>
+      </c>
+      <c r="B141">
+        <v>53.570842869412431</v>
+      </c>
+      <c r="C141">
+        <v>14.475157130587579</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>280</v>
+      </c>
+      <c r="B142">
+        <v>53.956244616674397</v>
+      </c>
+      <c r="C142">
+        <v>14.08975538332561</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>282</v>
+      </c>
+      <c r="B143">
+        <v>54.341646363936363</v>
+      </c>
+      <c r="C143">
+        <v>13.70435363606364</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>284</v>
+      </c>
+      <c r="B144">
+        <v>54.727048111198307</v>
+      </c>
+      <c r="C144">
+        <v>13.31895188880169</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>286</v>
+      </c>
+      <c r="B145">
+        <v>55.11244985846028</v>
+      </c>
+      <c r="C145">
+        <v>12.93355014153973</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>288</v>
+      </c>
+      <c r="B146">
+        <v>55.497851605722239</v>
+      </c>
+      <c r="C146">
+        <v>12.548148394277771</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>290</v>
+      </c>
+      <c r="B147">
+        <v>55.883253352984198</v>
+      </c>
+      <c r="C147">
+        <v>12.16274664701581</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>292</v>
+      </c>
+      <c r="B148">
+        <v>56.26865510024615</v>
+      </c>
+      <c r="C148">
+        <v>11.77734489975386</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>294</v>
+      </c>
+      <c r="B149">
+        <v>56.654056847508123</v>
+      </c>
+      <c r="C149">
+        <v>11.39194315249188</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>296</v>
+      </c>
+      <c r="B150">
+        <v>57.039458594770082</v>
+      </c>
+      <c r="C150">
+        <v>11.006541405229919</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>298</v>
+      </c>
+      <c r="B151">
+        <v>57.424860342032026</v>
+      </c>
+      <c r="C151">
+        <v>10.621139657967969</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>300</v>
+      </c>
+      <c r="B152">
+        <v>57.810262089294</v>
+      </c>
+      <c r="C152">
+        <v>10.23573791070601</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>302</v>
+      </c>
+      <c r="B153">
+        <v>58.195663836555958</v>
+      </c>
+      <c r="C153">
+        <v>9.8503361634440481</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>304</v>
+      </c>
+      <c r="B154">
+        <v>58.581065583817917</v>
+      </c>
+      <c r="C154">
+        <v>9.4649344161820892</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>306</v>
+      </c>
+      <c r="B155">
+        <v>58.966467331079883</v>
+      </c>
+      <c r="C155">
+        <v>9.0795326689201303</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>308</v>
+      </c>
+      <c r="B156">
+        <v>59.351869078341842</v>
+      </c>
+      <c r="C156">
+        <v>8.6941309216581715</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>310</v>
+      </c>
+      <c r="B157">
+        <v>59.737270825603801</v>
+      </c>
+      <c r="C157">
+        <v>8.3087291743962055</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>312</v>
+      </c>
+      <c r="B158">
+        <v>60.12267257286576</v>
+      </c>
+      <c r="C158">
+        <v>7.9233274271342466</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>314</v>
+      </c>
+      <c r="B159">
+        <v>60.508074320127719</v>
+      </c>
+      <c r="C159">
+        <v>7.5379256798722878</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>316</v>
+      </c>
+      <c r="B160">
+        <v>60.89347606738967</v>
+      </c>
+      <c r="C160">
+        <v>7.152523932610336</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>318</v>
+      </c>
+      <c r="B161">
+        <v>61.278877814651644</v>
+      </c>
+      <c r="C161">
+        <v>6.767122185348363</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>320</v>
+      </c>
+      <c r="B162">
+        <v>61.664279561913602</v>
+      </c>
+      <c r="C162">
+        <v>6.3817204380864112</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>322</v>
+      </c>
+      <c r="B163">
+        <v>62.049681309175547</v>
+      </c>
+      <c r="C163">
+        <v>5.9963186908244523</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>324</v>
+      </c>
+      <c r="B164">
+        <v>62.43508305643752</v>
+      </c>
+      <c r="C164">
+        <v>5.6109169435624864</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>326</v>
+      </c>
+      <c r="B165">
+        <v>62.820484803699479</v>
+      </c>
+      <c r="C165">
+        <v>5.2255151963005284</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>328</v>
+      </c>
+      <c r="B166">
+        <v>63.205886550961438</v>
+      </c>
+      <c r="C166">
+        <v>4.8401134490385624</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>330</v>
+      </c>
+      <c r="B167">
+        <v>63.591288298223397</v>
+      </c>
+      <c r="C167">
+        <v>4.4547117017766098</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>332</v>
+      </c>
+      <c r="B168">
+        <v>63.976690045485363</v>
+      </c>
+      <c r="C168">
+        <v>4.0693099545146509</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>334</v>
+      </c>
+      <c r="B169">
+        <v>64.362091792747322</v>
+      </c>
+      <c r="C169">
+        <v>3.683908207252685</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>336</v>
+      </c>
+      <c r="B170">
+        <v>64.747493540009273</v>
+      </c>
+      <c r="C170">
+        <v>3.2985064599907332</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>338</v>
+      </c>
+      <c r="B171">
+        <v>65.132895287271239</v>
+      </c>
+      <c r="C171">
+        <v>2.9131047127287668</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>340</v>
+      </c>
+      <c r="B172">
+        <v>65.518297034533205</v>
+      </c>
+      <c r="C172">
+        <v>2.5277029654668008</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>342</v>
+      </c>
+      <c r="B173">
+        <v>65.903698781795157</v>
+      </c>
+      <c r="C173">
+        <v>2.14230121820485</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>344</v>
+      </c>
+      <c r="B174">
+        <v>66.289100529057109</v>
+      </c>
+      <c r="C174">
+        <v>1.756899470942898</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>346</v>
+      </c>
+      <c r="B175">
+        <v>66.674502276319075</v>
+      </c>
+      <c r="C175">
+        <v>1.371497723680932</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>348</v>
+      </c>
+      <c r="B176">
+        <v>67.059904023581041</v>
+      </c>
+      <c r="C176">
+        <v>0.98609597641896585</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>350</v>
+      </c>
+      <c r="B177">
+        <v>67.445305770842992</v>
+      </c>
+      <c r="C177">
+        <v>0.60069422915701409</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>352</v>
+      </c>
+      <c r="B178">
+        <v>67.830707518104973</v>
+      </c>
+      <c r="C178">
+        <v>0.21529248189503389</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>354</v>
+      </c>
+      <c r="B179">
+        <v>68.216109265366924</v>
+      </c>
+      <c r="C179">
+        <v>-0.17010926536691781</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>356</v>
+      </c>
+      <c r="B180">
+        <v>68.601511012628876</v>
+      </c>
+      <c r="C180">
+        <v>-0.55551101262886959</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>358</v>
+      </c>
+      <c r="B181">
+        <v>68.986912759890828</v>
+      </c>
+      <c r="C181">
+        <v>-0.94091275989082135</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>360</v>
+      </c>
+      <c r="B182">
+        <v>69.372314507152794</v>
+      </c>
+      <c r="C182">
+        <v>-1.3263145071527871</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>362</v>
+      </c>
+      <c r="B183">
+        <v>69.75771625441476</v>
+      </c>
+      <c r="C183">
+        <v>-1.7117162544147531</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>364</v>
+      </c>
+      <c r="B184">
+        <v>70.143118001676726</v>
+      </c>
+      <c r="C184">
+        <v>-2.0971180016767188</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>366</v>
+      </c>
+      <c r="B185">
+        <v>70.528519748938677</v>
+      </c>
+      <c r="C185">
+        <v>-2.482519748938671</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>368</v>
+      </c>
+      <c r="B186">
+        <v>70.913921496200643</v>
+      </c>
+      <c r="C186">
+        <v>-2.867921496200637</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>370</v>
+      </c>
+      <c r="B187">
+        <v>71.299323243462595</v>
+      </c>
+      <c r="C187">
+        <v>-3.2533232434625892</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>372</v>
+      </c>
+      <c r="B188">
+        <v>71.684724990724561</v>
+      </c>
+      <c r="C188">
+        <v>-3.6387249907245551</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>374</v>
+      </c>
+      <c r="B189">
+        <v>72.070126737986513</v>
+      </c>
+      <c r="C189">
+        <v>-4.0241267379865064</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>376</v>
+      </c>
+      <c r="B190">
+        <v>72.455528485248479</v>
+      </c>
+      <c r="C190">
+        <v>-4.4095284852484724</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>378</v>
+      </c>
+      <c r="B191">
+        <v>72.840930232510445</v>
+      </c>
+      <c r="C191">
+        <v>-4.7949302325104384</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>380</v>
+      </c>
+      <c r="B192">
+        <v>73.226331979772397</v>
+      </c>
+      <c r="C192">
+        <v>-5.1803319797723901</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>382</v>
+      </c>
+      <c r="B193">
+        <v>73.611733727034348</v>
+      </c>
+      <c r="C193">
+        <v>-5.5657337270343419</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>384</v>
+      </c>
+      <c r="B194">
+        <v>73.997135474296314</v>
+      </c>
+      <c r="C194">
+        <v>-5.9511354742963078</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>386</v>
+      </c>
+      <c r="B195">
+        <v>74.38253722155828</v>
+      </c>
+      <c r="C195">
+        <v>-6.3365372215582738</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>388</v>
+      </c>
+      <c r="B196">
+        <v>74.767938968820232</v>
+      </c>
+      <c r="C196">
+        <v>-6.7219389688202256</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>390</v>
+      </c>
+      <c r="B197">
+        <v>75.153340716082212</v>
+      </c>
+      <c r="C197">
+        <v>-7.1073407160822057</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>392</v>
+      </c>
+      <c r="B198">
+        <v>75.538742463344164</v>
+      </c>
+      <c r="C198">
+        <v>-7.4927424633441566</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>394</v>
+      </c>
+      <c r="B199">
+        <v>75.924144210606116</v>
+      </c>
+      <c r="C199">
+        <v>-7.8781442106061093</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>396</v>
+      </c>
+      <c r="B200">
+        <v>76.309545957868067</v>
+      </c>
+      <c r="C200">
+        <v>-8.263545957868061</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>398</v>
+      </c>
+      <c r="B201">
+        <v>76.694947705130033</v>
+      </c>
+      <c r="C201">
+        <v>-8.648947705130027</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>400</v>
+      </c>
+      <c r="B202">
+        <v>77.080349452391999</v>
+      </c>
+      <c r="C202">
+        <v>-9.0343494523919929</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>402</v>
+      </c>
+      <c r="B203">
+        <v>77.465751199653965</v>
+      </c>
+      <c r="C203">
+        <v>-9.4197511996539589</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>404</v>
+      </c>
+      <c r="B204">
+        <v>77.851152946915917</v>
+      </c>
+      <c r="C204">
+        <v>-9.8051529469159107</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>406</v>
+      </c>
+      <c r="B205">
+        <v>78.236554694177869</v>
+      </c>
+      <c r="C205">
+        <v>-10.190554694177861</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>408</v>
+      </c>
+      <c r="B206">
+        <v>78.621956441439835</v>
+      </c>
+      <c r="C206">
+        <v>-10.57595644143983</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>410</v>
+      </c>
+      <c r="B207">
+        <v>79.007358188701801</v>
+      </c>
+      <c r="C207">
+        <v>-10.961358188701791</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>412</v>
+      </c>
+      <c r="B208">
+        <v>79.392759935963753</v>
+      </c>
+      <c r="C208">
+        <v>-11.34675993596375</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>414</v>
+      </c>
+      <c r="B209">
+        <v>79.778161683225733</v>
+      </c>
+      <c r="C209">
+        <v>-11.73216168322573</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>416</v>
+      </c>
+      <c r="B210">
+        <v>80.163563430487685</v>
+      </c>
+      <c r="C210">
+        <v>-12.11756343048768</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>418</v>
+      </c>
+      <c r="B211">
+        <v>80.548965177749636</v>
+      </c>
+      <c r="C211">
+        <v>-12.50296517774963</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>420</v>
+      </c>
+      <c r="B212">
+        <v>80.934366925011602</v>
+      </c>
+      <c r="C212">
+        <v>-12.888366925011599</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>422</v>
+      </c>
+      <c r="B213">
+        <v>81.319768672273554</v>
+      </c>
+      <c r="C213">
+        <v>-13.273768672273549</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>424</v>
+      </c>
+      <c r="B214">
+        <v>81.705170419535506</v>
+      </c>
+      <c r="C214">
+        <v>-13.659170419535499</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>426</v>
+      </c>
+      <c r="B215">
+        <v>82.090572166797486</v>
+      </c>
+      <c r="C215">
+        <v>-14.044572166797479</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>428</v>
+      </c>
+      <c r="B216">
+        <v>82.475973914059438</v>
+      </c>
+      <c r="C216">
+        <v>-14.429973914059429</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>430</v>
+      </c>
+      <c r="B217">
+        <v>82.861375661321389</v>
+      </c>
+      <c r="C217">
+        <v>-14.815375661321379</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>432</v>
+      </c>
+      <c r="B218">
+        <v>83.246777408583355</v>
+      </c>
+      <c r="C218">
+        <v>-15.200777408583351</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>434</v>
+      </c>
+      <c r="B219">
+        <v>83.632179155845321</v>
+      </c>
+      <c r="C219">
+        <v>-15.58617915584531</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>436</v>
+      </c>
+      <c r="B220">
+        <v>84.017580903107273</v>
+      </c>
+      <c r="C220">
+        <v>-15.97158090310727</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>438</v>
+      </c>
+      <c r="B221">
+        <v>84.402982650369239</v>
+      </c>
+      <c r="C221">
+        <v>-16.356982650369229</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>440</v>
+      </c>
+      <c r="B222">
+        <v>84.788384397631205</v>
+      </c>
+      <c r="C222">
+        <v>-16.742384397631199</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>442</v>
+      </c>
+      <c r="B223">
+        <v>85.173786144893157</v>
+      </c>
+      <c r="C223">
+        <v>-17.12778614489315</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>444</v>
+      </c>
+      <c r="B224">
+        <v>85.559187892155109</v>
+      </c>
+      <c r="C224">
+        <v>-17.513187892155099</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>446</v>
+      </c>
+      <c r="B225">
+        <v>85.94458963941706</v>
+      </c>
+      <c r="C225">
+        <v>-17.89858963941705</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>448</v>
+      </c>
+      <c r="B226">
+        <v>86.32999138667904</v>
+      </c>
+      <c r="C226">
+        <v>-18.28399138667903</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>450</v>
+      </c>
+      <c r="B227">
+        <v>86.715393133940992</v>
+      </c>
+      <c r="C227">
+        <v>-18.669393133940989</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>452</v>
+      </c>
+      <c r="B228">
+        <v>87.100794881202958</v>
+      </c>
+      <c r="C228">
+        <v>-19.054794881202952</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>454</v>
+      </c>
+      <c r="B229">
+        <v>87.486196628464924</v>
+      </c>
+      <c r="C229">
+        <v>-19.440196628464921</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>456</v>
+      </c>
+      <c r="B230">
+        <v>87.871598375726876</v>
+      </c>
+      <c r="C230">
+        <v>-19.825598375726869</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>458</v>
+      </c>
+      <c r="B231">
+        <v>88.257000122988828</v>
+      </c>
+      <c r="C231">
+        <v>-20.211000122988821</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>460</v>
+      </c>
+      <c r="B232">
+        <v>88.642401870250779</v>
+      </c>
+      <c r="C232">
+        <v>-20.596401870250769</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>462</v>
+      </c>
+      <c r="B233">
+        <v>89.02780361751276</v>
+      </c>
+      <c r="C233">
+        <v>-20.98180361751275</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>464</v>
+      </c>
+      <c r="B234">
+        <v>89.413205364774726</v>
+      </c>
+      <c r="C234">
+        <v>-21.367205364774719</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>466</v>
+      </c>
+      <c r="B235">
+        <v>89.798607112036677</v>
+      </c>
+      <c r="C235">
+        <v>-21.752607112036671</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>468</v>
+      </c>
+      <c r="B236">
+        <v>90.184008859298643</v>
+      </c>
+      <c r="C236">
+        <v>-22.13800885929864</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>470</v>
+      </c>
+      <c r="B237">
+        <v>90.569410606560595</v>
+      </c>
+      <c r="C237">
+        <v>-22.523410606560589</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>472</v>
+      </c>
+      <c r="B238">
+        <v>90.954812353822547</v>
+      </c>
+      <c r="C238">
+        <v>-22.90881235382254</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>474</v>
+      </c>
+      <c r="B239">
+        <v>91.340214101084513</v>
+      </c>
+      <c r="C239">
+        <v>-23.29421410108451</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>476</v>
+      </c>
+      <c r="B240">
+        <v>91.725615848346493</v>
+      </c>
+      <c r="C240">
+        <v>-23.67961584834649</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>478</v>
+      </c>
+      <c r="B241">
+        <v>92.111017595608445</v>
+      </c>
+      <c r="C241">
+        <v>-24.065017595608438</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>480</v>
+      </c>
+      <c r="B242">
+        <v>92.496419342870396</v>
+      </c>
+      <c r="C242">
+        <v>-24.45041934287039</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>482</v>
+      </c>
+      <c r="B243">
+        <v>92.881821090132362</v>
+      </c>
+      <c r="C243">
+        <v>-24.83582109013236</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>484</v>
+      </c>
+      <c r="B244">
+        <v>93.267222837394314</v>
+      </c>
+      <c r="C244">
+        <v>-25.221222837394311</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>486</v>
+      </c>
+      <c r="B245">
+        <v>93.652624584656266</v>
+      </c>
+      <c r="C245">
+        <v>-25.606624584656259</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>488</v>
+      </c>
+      <c r="B246">
+        <v>94.038026331918246</v>
+      </c>
+      <c r="C246">
+        <v>-25.99202633191824</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>490</v>
+      </c>
+      <c r="B247">
+        <v>94.423428079180198</v>
+      </c>
+      <c r="C247">
+        <v>-26.377428079180191</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>492</v>
+      </c>
+      <c r="B248">
+        <v>94.80882982644215</v>
+      </c>
+      <c r="C248">
+        <v>-26.76282982644214</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>494</v>
+      </c>
+      <c r="B249">
+        <v>95.194231573704116</v>
+      </c>
+      <c r="C249">
+        <v>-27.148231573704109</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>496</v>
+      </c>
+      <c r="B250">
+        <v>95.579633320966082</v>
+      </c>
+      <c r="C250">
+        <v>-27.533633320966079</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>498</v>
+      </c>
+      <c r="B251">
+        <v>95.965035068228033</v>
+      </c>
+      <c r="C251">
+        <v>-27.91903506822803</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>500</v>
+      </c>
+      <c r="B252">
+        <v>96.350436815489999</v>
+      </c>
+      <c r="C252">
+        <v>-28.304436815489989</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>502</v>
+      </c>
+      <c r="B253">
+        <v>96.735838562751965</v>
+      </c>
+      <c r="C253">
+        <v>-28.689838562751959</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>504</v>
+      </c>
+      <c r="B254">
+        <v>97.121240310013917</v>
+      </c>
+      <c r="C254">
+        <v>-29.075240310013911</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>506</v>
+      </c>
+      <c r="B255">
+        <v>97.506642057275869</v>
+      </c>
+      <c r="C255">
+        <v>-29.460642057275859</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>508</v>
+      </c>
+      <c r="B256">
+        <v>97.892043804537821</v>
+      </c>
+      <c r="C256">
+        <v>-29.84604380453781</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>510</v>
+      </c>
+      <c r="B257">
+        <v>98.277445551799801</v>
+      </c>
+      <c r="C257">
+        <v>-30.231445551799791</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>512</v>
+      </c>
+      <c r="B258">
+        <v>98.662847299061752</v>
+      </c>
+      <c r="C258">
+        <v>-30.61684729906175</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>514</v>
+      </c>
+      <c r="B259">
+        <v>99.048249046323718</v>
+      </c>
+      <c r="C259">
+        <v>-31.002249046323708</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>516</v>
+      </c>
+      <c r="B260">
+        <v>99.433650793585684</v>
+      </c>
+      <c r="C260">
+        <v>-31.387650793585681</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>518</v>
+      </c>
+      <c r="B261">
+        <v>99.819052540847636</v>
+      </c>
+      <c r="C261">
+        <v>-31.77305254084763</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>520</v>
+      </c>
+      <c r="B262">
+        <v>100.2044542881096</v>
+      </c>
+      <c r="C262">
+        <v>-32.158454288109581</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>522</v>
+      </c>
+      <c r="B263">
+        <v>100.5898560353715</v>
+      </c>
+      <c r="C263">
+        <v>-32.543856035371533</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>524</v>
+      </c>
+      <c r="B264">
+        <v>100.97525778263351</v>
+      </c>
+      <c r="C264">
+        <v>-32.929257782633513</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>526</v>
+      </c>
+      <c r="B265">
+        <v>101.3606595298955</v>
+      </c>
+      <c r="C265">
+        <v>-33.314659529895479</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>528</v>
+      </c>
+      <c r="B266">
+        <v>101.74606127715739</v>
+      </c>
+      <c r="C266">
+        <v>-33.700061277157431</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>530</v>
+      </c>
+      <c r="B267">
+        <v>102.1314630244194</v>
+      </c>
+      <c r="C267">
+        <v>-34.085463024419397</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>532</v>
+      </c>
+      <c r="B268">
+        <v>102.5168647716814</v>
+      </c>
+      <c r="C268">
+        <v>-34.470864771681349</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>534</v>
+      </c>
+      <c r="B269">
+        <v>102.90226651894331</v>
+      </c>
+      <c r="C269">
+        <v>-34.856266518943301</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>536</v>
+      </c>
+      <c r="B270">
+        <v>103.2876682662053</v>
+      </c>
+      <c r="C270">
+        <v>-35.241668266205252</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>538</v>
+      </c>
+      <c r="B271">
+        <v>103.6730700134673</v>
+      </c>
+      <c r="C271">
+        <v>-35.627070013467247</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>540</v>
+      </c>
+      <c r="B272">
+        <v>104.0584717607292</v>
+      </c>
+      <c r="C272">
+        <v>-36.012471760729198</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>542</v>
+      </c>
+      <c r="B273">
+        <v>104.4438735079912</v>
+      </c>
+      <c r="C273">
+        <v>-36.39787350799115</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>544</v>
+      </c>
+      <c r="B274">
+        <v>104.82927525525309</v>
+      </c>
+      <c r="C274">
+        <v>-36.783275255253123</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>546</v>
+      </c>
+      <c r="B275">
+        <v>105.2146770025151</v>
+      </c>
+      <c r="C275">
+        <v>-37.168677002515068</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>548</v>
+      </c>
+      <c r="B276">
+        <v>105.600078749777</v>
+      </c>
+      <c r="C276">
+        <v>-37.55407874977702</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>550</v>
+      </c>
+      <c r="B277">
+        <v>105.98548049703901</v>
+      </c>
+      <c r="C277">
+        <v>-37.939480497038993</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>552</v>
+      </c>
+      <c r="B278">
+        <v>106.370882244301</v>
+      </c>
+      <c r="C278">
+        <v>-38.324882244300952</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>554</v>
+      </c>
+      <c r="B279">
+        <v>106.7562839915629</v>
+      </c>
+      <c r="C279">
+        <v>-38.710283991562903</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>556</v>
+      </c>
+      <c r="B280">
+        <v>107.1416857388249</v>
+      </c>
+      <c r="C280">
+        <v>-39.095685738824862</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>558</v>
+      </c>
+      <c r="B281">
+        <v>107.5270874860868</v>
+      </c>
+      <c r="C281">
+        <v>-39.481087486086842</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>560</v>
+      </c>
+      <c r="B282">
+        <v>107.91248923334879</v>
+      </c>
+      <c r="C282">
+        <v>-39.866489233348787</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>562</v>
+      </c>
+      <c r="B283">
+        <v>108.2978909806108</v>
+      </c>
+      <c r="C283">
+        <v>-40.251890980610753</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>564</v>
+      </c>
+      <c r="B284">
+        <v>108.6832927278727</v>
+      </c>
+      <c r="C284">
+        <v>-40.637292727872719</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>566</v>
+      </c>
+      <c r="B285">
+        <v>109.06869447513471</v>
+      </c>
+      <c r="C285">
+        <v>-41.022694475134671</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>568</v>
+      </c>
+      <c r="B286">
+        <v>109.4540962223966</v>
+      </c>
+      <c r="C286">
+        <v>-41.408096222396622</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>570</v>
+      </c>
+      <c r="B287">
+        <v>109.83949796965859</v>
+      </c>
+      <c r="C287">
+        <v>-41.793497969658567</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>572</v>
+      </c>
+      <c r="B288">
+        <v>110.2248997169206</v>
+      </c>
+      <c r="C288">
+        <v>-42.178899716920547</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>574</v>
+      </c>
+      <c r="B289">
+        <v>110.6103014641825</v>
+      </c>
+      <c r="C289">
+        <v>-42.56430146418252</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>576</v>
+      </c>
+      <c r="B290">
+        <v>110.99570321144451</v>
+      </c>
+      <c r="C290">
+        <v>-42.949703211444472</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>578</v>
+      </c>
+      <c r="B291">
+        <v>111.3811049587064</v>
+      </c>
+      <c r="C291">
+        <v>-43.335104958706438</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>580</v>
+      </c>
+      <c r="B292">
+        <v>111.7665067059684</v>
+      </c>
+      <c r="C292">
+        <v>-43.72050670596839</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>582</v>
+      </c>
+      <c r="B293">
+        <v>112.15190845323031</v>
+      </c>
+      <c r="C293">
+        <v>-44.105908453230342</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>584</v>
+      </c>
+      <c r="B294">
+        <v>112.5373102004923</v>
+      </c>
+      <c r="C294">
+        <v>-44.491310200492293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>586</v>
+      </c>
+      <c r="B295">
+        <v>112.92271194775429</v>
+      </c>
+      <c r="C295">
+        <v>-44.876711947754274</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>588</v>
+      </c>
+      <c r="B296">
+        <v>113.3081136950162</v>
+      </c>
+      <c r="C296">
+        <v>-45.262113695016239</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>590</v>
+      </c>
+      <c r="B297">
+        <v>113.6935154422782</v>
+      </c>
+      <c r="C297">
+        <v>-45.647515442278191</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>592</v>
+      </c>
+      <c r="B298">
+        <v>114.07891718954021</v>
+      </c>
+      <c r="C298">
+        <v>-46.032917189540157</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>594</v>
+      </c>
+      <c r="B299">
+        <v>114.4643189368021</v>
+      </c>
+      <c r="C299">
+        <v>-46.418318936802109</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>596</v>
+      </c>
+      <c r="B300">
+        <v>114.8497206840641</v>
+      </c>
+      <c r="C300">
+        <v>-46.803720684064061</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>598</v>
+      </c>
+      <c r="B301">
+        <v>115.235122431326</v>
+      </c>
+      <c r="C301">
+        <v>-47.189122431326012</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>600</v>
+      </c>
+      <c r="B302">
+        <v>115.620524178588</v>
+      </c>
+      <c r="C302">
+        <v>-47.574524178587993</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>602</v>
+      </c>
+      <c r="B303">
+        <v>116.00592592584999</v>
+      </c>
+      <c r="C303">
+        <v>-47.959925925849959</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>604</v>
+      </c>
+      <c r="B304">
+        <v>116.3913276731119</v>
+      </c>
+      <c r="C304">
+        <v>-48.34532767311191</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>606</v>
+      </c>
+      <c r="B305">
+        <v>116.7767294203739</v>
+      </c>
+      <c r="C305">
+        <v>-48.730729420373883</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>608</v>
+      </c>
+      <c r="B306">
+        <v>117.16213116763581</v>
+      </c>
+      <c r="C306">
+        <v>-49.116131167635828</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>610</v>
+      </c>
+      <c r="B307">
+        <v>117.5475329148978</v>
+      </c>
+      <c r="C307">
+        <v>-49.50153291489778</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>612</v>
+      </c>
+      <c r="B308">
+        <v>117.93293466215979</v>
+      </c>
+      <c r="C308">
+        <v>-49.886934662159753</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>614</v>
+      </c>
+      <c r="B309">
+        <v>118.3183364094217</v>
+      </c>
+      <c r="C309">
+        <v>-50.272336409421712</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>616</v>
+      </c>
+      <c r="B310">
+        <v>118.7037381566837</v>
+      </c>
+      <c r="C310">
+        <v>-50.657738156683664</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>618</v>
+      </c>
+      <c r="B311">
+        <v>119.08913990394559</v>
+      </c>
+      <c r="C311">
+        <v>-51.043139903945622</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>620</v>
+      </c>
+      <c r="B312">
+        <v>119.4745416512076</v>
+      </c>
+      <c r="C312">
+        <v>-51.428541651207603</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>622</v>
+      </c>
+      <c r="B313">
+        <v>119.8599433984696</v>
+      </c>
+      <c r="C313">
+        <v>-51.813943398469547</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>624</v>
+      </c>
+      <c r="B314">
+        <v>120.24534514573151</v>
+      </c>
+      <c r="C314">
+        <v>-52.199345145731513</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>626</v>
+      </c>
+      <c r="B315">
+        <v>120.6307468929935</v>
+      </c>
+      <c r="C315">
+        <v>-52.584746892993458</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>628</v>
+      </c>
+      <c r="B316">
+        <v>121.01614864025539</v>
+      </c>
+      <c r="C316">
+        <v>-52.970148640255431</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>630</v>
+      </c>
+      <c r="B317">
+        <v>121.4015503875174</v>
+      </c>
+      <c r="C317">
+        <v>-53.355550387517383</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>632</v>
+      </c>
+      <c r="B318">
+        <v>121.7869521347793</v>
+      </c>
+      <c r="C318">
+        <v>-53.740952134779327</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>634</v>
+      </c>
+      <c r="B319">
+        <v>122.17235388204131</v>
+      </c>
+      <c r="C319">
+        <v>-54.126353882041307</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>636</v>
+      </c>
+      <c r="B320">
+        <v>122.5577556293033</v>
+      </c>
+      <c r="C320">
+        <v>-54.511755629303281</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>638</v>
+      </c>
+      <c r="B321">
+        <v>122.9431573765652</v>
+      </c>
+      <c r="C321">
+        <v>-54.897157376565232</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>640</v>
+      </c>
+      <c r="B322">
+        <v>123.3285591238272</v>
+      </c>
+      <c r="C322">
+        <v>-55.282559123827177</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>642</v>
+      </c>
+      <c r="B323">
+        <v>123.7139608710892</v>
+      </c>
+      <c r="C323">
+        <v>-55.66796087108915</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>644</v>
+      </c>
+      <c r="B324">
+        <v>124.09936261835109</v>
+      </c>
+      <c r="C324">
+        <v>-56.053362618351102</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>646</v>
+      </c>
+      <c r="B325">
+        <v>124.4847643656131</v>
+      </c>
+      <c r="C325">
+        <v>-56.438764365613054</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>648</v>
+      </c>
+      <c r="B326">
+        <v>124.870166112875</v>
+      </c>
+      <c r="C326">
+        <v>-56.824166112875027</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>650</v>
+      </c>
+      <c r="B327">
+        <v>125.25556786013701</v>
+      </c>
+      <c r="C327">
+        <v>-57.209567860137</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>652</v>
+      </c>
+      <c r="B328">
+        <v>125.640969607399</v>
+      </c>
+      <c r="C328">
+        <v>-57.594969607398951</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>654</v>
+      </c>
+      <c r="B329">
+        <v>126.0263713546609</v>
+      </c>
+      <c r="C329">
+        <v>-57.980371354660932</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>656</v>
+      </c>
+      <c r="B330">
+        <v>126.4117731019229</v>
+      </c>
+      <c r="C330">
+        <v>-58.365773101922883</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>658</v>
+      </c>
+      <c r="B331">
+        <v>126.7971748491848</v>
+      </c>
+      <c r="C331">
+        <v>-58.751174849184842</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>660</v>
+      </c>
+      <c r="B332">
+        <v>127.18257659644679</v>
+      </c>
+      <c r="C332">
+        <v>-59.136576596446787</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>662</v>
+      </c>
+      <c r="B333">
+        <v>127.5679783437088</v>
+      </c>
+      <c r="C333">
+        <v>-59.521978343708753</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>664</v>
+      </c>
+      <c r="B334">
+        <v>127.9533800909707</v>
+      </c>
+      <c r="C334">
+        <v>-59.907380090970697</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>666</v>
+      </c>
+      <c r="B335">
+        <v>128.33878183823259</v>
+      </c>
+      <c r="C335">
+        <v>-60.292781838232642</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>668</v>
+      </c>
+      <c r="B336">
+        <v>128.72418358549459</v>
+      </c>
+      <c r="C336">
+        <v>-60.678183585494637</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>670</v>
+      </c>
+      <c r="B337">
+        <v>129.10958533275661</v>
+      </c>
+      <c r="C337">
+        <v>-61.063585332756602</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>672</v>
+      </c>
+      <c r="B338">
+        <v>129.49498708001849</v>
+      </c>
+      <c r="C338">
+        <v>-61.44898708001854</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>674</v>
+      </c>
+      <c r="B339">
+        <v>129.88038882728051</v>
+      </c>
+      <c r="C339">
+        <v>-61.834388827280513</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>676</v>
+      </c>
+      <c r="B340">
+        <v>130.26579057454251</v>
+      </c>
+      <c r="C340">
+        <v>-62.219790574542472</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>678</v>
+      </c>
+      <c r="B341">
+        <v>130.65119232180439</v>
+      </c>
+      <c r="C341">
+        <v>-62.605192321804438</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>680</v>
+      </c>
+      <c r="B342">
+        <v>131.03659406906641</v>
+      </c>
+      <c r="C342">
+        <v>-62.990594069066397</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>682</v>
+      </c>
+      <c r="B343">
+        <v>131.42199581632829</v>
+      </c>
+      <c r="C343">
+        <v>-63.375995816328341</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>684</v>
+      </c>
+      <c r="B344">
+        <v>131.80739756359031</v>
+      </c>
+      <c r="C344">
+        <v>-63.761397563590307</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>686</v>
+      </c>
+      <c r="B345">
+        <v>132.19279931085231</v>
+      </c>
+      <c r="C345">
+        <v>-64.146799310852245</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>688</v>
+      </c>
+      <c r="B346">
+        <v>132.57820105811419</v>
+      </c>
+      <c r="C346">
+        <v>-64.532201058114211</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>690</v>
+      </c>
+      <c r="B347">
+        <v>132.96360280537621</v>
+      </c>
+      <c r="C347">
+        <v>-64.917602805376177</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>692</v>
+      </c>
+      <c r="B348">
+        <v>133.34900455263809</v>
+      </c>
+      <c r="C348">
+        <v>-65.303004552638143</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>694</v>
+      </c>
+      <c r="B349">
+        <v>133.73440629990009</v>
+      </c>
+      <c r="C349">
+        <v>-65.688406299900109</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>696</v>
+      </c>
+      <c r="B350">
+        <v>134.11980804716211</v>
+      </c>
+      <c r="C350">
+        <v>-66.073808047162075</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>698</v>
+      </c>
+      <c r="B351">
+        <v>134.50520979442399</v>
+      </c>
+      <c r="C351">
+        <v>-66.459209794424041</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>700</v>
+      </c>
+      <c r="B352">
+        <v>134.89061154168601</v>
+      </c>
+      <c r="C352">
+        <v>-66.844611541685978</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>702</v>
+      </c>
+      <c r="B353">
+        <v>135.27601328894801</v>
+      </c>
+      <c r="C353">
+        <v>-67.230013288947944</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>704</v>
+      </c>
+      <c r="B354">
+        <v>135.66141503620989</v>
+      </c>
+      <c r="C354">
+        <v>-67.615415036209939</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>706</v>
+      </c>
+      <c r="B355">
+        <v>136.04681678347191</v>
+      </c>
+      <c r="C355">
+        <v>-68.000816783471876</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>708</v>
+      </c>
+      <c r="B356">
+        <v>136.43221853073379</v>
+      </c>
+      <c r="C356">
+        <v>-68.386218530733842</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>710</v>
+      </c>
+      <c r="B357">
+        <v>136.81762027799579</v>
+      </c>
+      <c r="C357">
+        <v>-68.77162027799578</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>712</v>
+      </c>
+      <c r="B358">
+        <v>137.20302202525781</v>
+      </c>
+      <c r="C358">
+        <v>-69.157022025257746</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>714</v>
+      </c>
+      <c r="B359">
+        <v>137.58842377251969</v>
+      </c>
+      <c r="C359">
+        <v>-69.542423772519683</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>716</v>
+      </c>
+      <c r="B360">
+        <v>137.97382551978171</v>
+      </c>
+      <c r="C360">
+        <v>-69.927825519781649</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>718</v>
+      </c>
+      <c r="B361">
+        <v>138.35922726704371</v>
+      </c>
+      <c r="C361">
+        <v>-70.313227267043644</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>720</v>
+      </c>
+      <c r="B362">
+        <v>138.74462901430559</v>
+      </c>
+      <c r="C362">
+        <v>-70.698629014305581</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>722</v>
+      </c>
+      <c r="B363">
+        <v>139.13003076156761</v>
+      </c>
+      <c r="C363">
+        <v>-71.084030761567547</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>724</v>
+      </c>
+      <c r="B364">
+        <v>139.51543250882949</v>
+      </c>
+      <c r="C364">
+        <v>-71.469432508829513</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>726</v>
+      </c>
+      <c r="B365">
+        <v>139.90083425609151</v>
+      </c>
+      <c r="C365">
+        <v>-71.854834256091479</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>728</v>
+      </c>
+      <c r="B366">
+        <v>140.28623600335351</v>
+      </c>
+      <c r="C366">
+        <v>-72.240236003353445</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>730</v>
+      </c>
+      <c r="B367">
+        <v>140.67163775061539</v>
+      </c>
+      <c r="C367">
+        <v>-72.625637750615383</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>732</v>
+      </c>
+      <c r="B368">
+        <v>141.05703949787741</v>
+      </c>
+      <c r="C368">
+        <v>-73.011039497877348</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>734</v>
+      </c>
+      <c r="B369">
+        <v>141.44244124513929</v>
+      </c>
+      <c r="C369">
+        <v>-73.396441245139286</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>736</v>
+      </c>
+      <c r="B370">
+        <v>141.82784299240129</v>
+      </c>
+      <c r="C370">
+        <v>-73.78184299240128</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>738</v>
+      </c>
+      <c r="B371">
+        <v>142.2132447396632</v>
+      </c>
+      <c r="C371">
+        <v>-74.167244739663218</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>740</v>
+      </c>
+      <c r="B372">
+        <v>142.59864648692519</v>
+      </c>
+      <c r="C372">
+        <v>-74.552646486925184</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>742</v>
+      </c>
+      <c r="B373">
+        <v>142.98404823418721</v>
+      </c>
+      <c r="C373">
+        <v>-74.93804823418715</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>744</v>
+      </c>
+      <c r="B374">
+        <v>143.36944998144909</v>
+      </c>
+      <c r="C374">
+        <v>-75.323449981449116</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>746</v>
+      </c>
+      <c r="B375">
+        <v>143.75485172871109</v>
+      </c>
+      <c r="C375">
+        <v>-75.708851728711082</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>748</v>
+      </c>
+      <c r="B376">
+        <v>144.140253475973</v>
+      </c>
+      <c r="C376">
+        <v>-76.094253475973019</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>750</v>
+      </c>
+      <c r="B377">
+        <v>144.52565522323499</v>
+      </c>
+      <c r="C377">
+        <v>-76.479655223234985</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>752</v>
+      </c>
+      <c r="B378">
+        <v>144.91105697049699</v>
+      </c>
+      <c r="C378">
+        <v>-76.865056970496951</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>754</v>
+      </c>
+      <c r="B379">
+        <v>145.2964587177589</v>
+      </c>
+      <c r="C379">
+        <v>-77.250458717758917</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>756</v>
+      </c>
+      <c r="B380">
+        <v>145.68186046502089</v>
+      </c>
+      <c r="C380">
+        <v>-77.635860465020883</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>758</v>
+      </c>
+      <c r="B381">
+        <v>146.0672622122828</v>
+      </c>
+      <c r="C381">
+        <v>-78.021262212282821</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>760</v>
+      </c>
+      <c r="B382">
+        <v>146.45266395954479</v>
+      </c>
+      <c r="C382">
+        <v>-78.406663959544787</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>762</v>
+      </c>
+      <c r="B383">
+        <v>146.8380657068067</v>
+      </c>
+      <c r="C383">
+        <v>-78.792065706806724</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>764</v>
+      </c>
+      <c r="B384">
+        <v>147.2234674540687</v>
+      </c>
+      <c r="C384">
+        <v>-79.17746745406869</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>766</v>
+      </c>
+      <c r="B385">
+        <v>147.60886920133069</v>
+      </c>
+      <c r="C385">
+        <v>-79.562869201330685</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>768</v>
+      </c>
+      <c r="B386">
+        <v>147.9942709485926</v>
+      </c>
+      <c r="C386">
+        <v>-79.948270948592622</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>770</v>
+      </c>
+      <c r="B387">
+        <v>148.37967269585459</v>
+      </c>
+      <c r="C387">
+        <v>-80.333672695854588</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>772</v>
+      </c>
+      <c r="B388">
+        <v>148.76507444311659</v>
+      </c>
+      <c r="C388">
+        <v>-80.719074443116554</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>774</v>
+      </c>
+      <c r="B389">
+        <v>149.1504761903785</v>
+      </c>
+      <c r="C389">
+        <v>-81.10447619037852</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>776</v>
+      </c>
+      <c r="B390">
+        <v>149.53587793764049</v>
+      </c>
+      <c r="C390">
+        <v>-81.489877937640458</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>778</v>
+      </c>
+      <c r="B391">
+        <v>149.9212796849024</v>
+      </c>
+      <c r="C391">
+        <v>-81.875279684902424</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>780</v>
+      </c>
+      <c r="B392">
+        <v>150.3066814321644</v>
+      </c>
+      <c r="C392">
+        <v>-82.260681432164418</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>782</v>
+      </c>
+      <c r="B393">
+        <v>150.69208317942639</v>
+      </c>
+      <c r="C393">
+        <v>-82.646083179426356</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>784</v>
+      </c>
+      <c r="B394">
+        <v>151.0774849266883</v>
+      </c>
+      <c r="C394">
+        <v>-83.031484926688321</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>786</v>
+      </c>
+      <c r="B395">
+        <v>151.46288667395029</v>
+      </c>
+      <c r="C395">
+        <v>-83.416886673950259</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>788</v>
+      </c>
+      <c r="B396">
+        <v>151.8482884212122</v>
+      </c>
+      <c r="C396">
+        <v>-83.802288421212225</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>790</v>
+      </c>
+      <c r="B397">
+        <v>152.2336901684742</v>
+      </c>
+      <c r="C397">
+        <v>-84.187690168474191</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>792</v>
+      </c>
+      <c r="B398">
+        <v>152.61909191573611</v>
+      </c>
+      <c r="C398">
+        <v>-84.573091915736128</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>794</v>
+      </c>
+      <c r="B399">
+        <v>153.0044936629981</v>
+      </c>
+      <c r="C399">
+        <v>-84.958493662998123</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>796</v>
+      </c>
+      <c r="B400">
+        <v>153.3898954102601</v>
+      </c>
+      <c r="C400">
+        <v>-85.34389541026006</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>798</v>
+      </c>
+      <c r="B401">
+        <v>153.775297157522</v>
+      </c>
+      <c r="C401">
+        <v>-85.729297157522026</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>800</v>
+      </c>
+      <c r="B402">
+        <v>154.160698904784</v>
+      </c>
+      <c r="C402">
+        <v>-86.114698904783992</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>802</v>
+      </c>
+      <c r="B403">
+        <v>154.54610065204599</v>
+      </c>
+      <c r="C403">
+        <v>-86.500100652045958</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>804</v>
+      </c>
+      <c r="B404">
+        <v>154.9315023993079</v>
+      </c>
+      <c r="C404">
+        <v>-86.885502399307924</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>806</v>
+      </c>
+      <c r="B405">
+        <v>155.3169041465699</v>
+      </c>
+      <c r="C405">
+        <v>-87.270904146569862</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>808</v>
+      </c>
+      <c r="B406">
+        <v>155.70230589383181</v>
+      </c>
+      <c r="C406">
+        <v>-87.656305893831828</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>810</v>
+      </c>
+      <c r="B407">
+        <v>156.0877076410938</v>
+      </c>
+      <c r="C407">
+        <v>-88.041707641093765</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>812</v>
+      </c>
+      <c r="B408">
+        <v>156.47310938835571</v>
+      </c>
+      <c r="C408">
+        <v>-88.427109388355731</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>814</v>
+      </c>
+      <c r="B409">
+        <v>156.8585111356177</v>
+      </c>
+      <c r="C409">
+        <v>-88.812511135617697</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>816</v>
+      </c>
+      <c r="B410">
+        <v>157.2439128828797</v>
+      </c>
+      <c r="C410">
+        <v>-89.197912882879663</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>818</v>
+      </c>
+      <c r="B411">
+        <v>157.62931463014161</v>
+      </c>
+      <c r="C411">
+        <v>-89.583314630141629</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>820</v>
+      </c>
+      <c r="B412">
+        <v>158.0147163774036</v>
+      </c>
+      <c r="C412">
+        <v>-89.968716377403595</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>822</v>
+      </c>
+      <c r="B413">
+        <v>158.4001181246656</v>
+      </c>
+      <c r="C413">
+        <v>-90.354118124665561</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>824</v>
+      </c>
+      <c r="B414">
+        <v>158.78551987192751</v>
+      </c>
+      <c r="C414">
+        <v>-90.739519871927499</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>826</v>
+      </c>
+      <c r="B415">
+        <v>159.1709216191895</v>
+      </c>
+      <c r="C415">
+        <v>-91.124921619189465</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>828</v>
+      </c>
+      <c r="B416">
+        <v>159.55632336645149</v>
+      </c>
+      <c r="C416">
+        <v>-91.510323366451459</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>830</v>
+      </c>
+      <c r="B417">
+        <v>159.9417251137134</v>
+      </c>
+      <c r="C417">
+        <v>-91.895725113713397</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>832</v>
+      </c>
+      <c r="B418">
+        <v>160.3271268609754</v>
+      </c>
+      <c r="C418">
+        <v>-92.281126860975363</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>834</v>
+      </c>
+      <c r="B419">
+        <v>160.71252860823731</v>
+      </c>
+      <c r="C419">
+        <v>-92.6665286082373</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>836</v>
+      </c>
+      <c r="B420">
+        <v>161.0979303554993</v>
+      </c>
+      <c r="C420">
+        <v>-93.051930355499266</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>838</v>
+      </c>
+      <c r="B421">
+        <v>161.48333210276121</v>
+      </c>
+      <c r="C421">
+        <v>-93.437332102761204</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>840</v>
+      </c>
+      <c r="B422">
+        <v>161.8687338500232</v>
+      </c>
+      <c r="C422">
+        <v>-93.822733850023198</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>842</v>
+      </c>
+      <c r="B423">
+        <v>162.2541355972852</v>
+      </c>
+      <c r="C423">
+        <v>-94.208135597285164</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>844</v>
+      </c>
+      <c r="B424">
+        <v>162.63953734454711</v>
+      </c>
+      <c r="C424">
+        <v>-94.593537344547101</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>846</v>
+      </c>
+      <c r="B425">
+        <v>163.0249390918091</v>
+      </c>
+      <c r="C425">
+        <v>-94.978939091809067</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>848</v>
+      </c>
+      <c r="B426">
+        <v>163.41034083907101</v>
+      </c>
+      <c r="C426">
+        <v>-95.364340839071005</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>850</v>
+      </c>
+      <c r="B427">
+        <v>163.79574258633301</v>
+      </c>
+      <c r="C427">
+        <v>-95.749742586332971</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>852</v>
+      </c>
+      <c r="B428">
+        <v>164.181144333595</v>
+      </c>
+      <c r="C428">
+        <v>-96.135144333594965</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>854</v>
+      </c>
+      <c r="B429">
+        <v>164.56654608085691</v>
+      </c>
+      <c r="C429">
+        <v>-96.520546080856903</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>856</v>
+      </c>
+      <c r="B430">
+        <v>164.9519478281189</v>
+      </c>
+      <c r="C430">
+        <v>-96.905947828118869</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>858</v>
+      </c>
+      <c r="B431">
+        <v>165.33734957538081</v>
+      </c>
+      <c r="C431">
+        <v>-97.291349575380806</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>860</v>
+      </c>
+      <c r="B432">
+        <v>165.72275132264281</v>
+      </c>
+      <c r="C432">
+        <v>-97.676751322642772</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>862</v>
+      </c>
+      <c r="B433">
+        <v>166.10815306990469</v>
+      </c>
+      <c r="C433">
+        <v>-98.062153069904738</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>864</v>
+      </c>
+      <c r="B434">
+        <v>166.49355481716671</v>
+      </c>
+      <c r="C434">
+        <v>-98.447554817166704</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>866</v>
+      </c>
+      <c r="B435">
+        <v>166.87895656442871</v>
+      </c>
+      <c r="C435">
+        <v>-98.832956564428699</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436">
+        <v>868</v>
+      </c>
+      <c r="B436">
+        <v>167.26435831169059</v>
+      </c>
+      <c r="C436">
+        <v>-99.218358311690636</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437">
+        <v>870</v>
+      </c>
+      <c r="B437">
+        <v>167.64976005895261</v>
+      </c>
+      <c r="C437">
+        <v>-99.603760058952602</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438">
+        <v>872</v>
+      </c>
+      <c r="B438">
+        <v>168.03516180621449</v>
+      </c>
+      <c r="C438">
+        <v>-99.98916180621454</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439">
+        <v>874</v>
+      </c>
+      <c r="B439">
+        <v>168.42056355347651</v>
+      </c>
+      <c r="C439">
+        <v>-100.37456355347651</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>876</v>
+      </c>
+      <c r="B440">
+        <v>168.80596530073851</v>
+      </c>
+      <c r="C440">
+        <v>-100.7599653007385</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>878</v>
+      </c>
+      <c r="B441">
+        <v>169.19136704800039</v>
+      </c>
+      <c r="C441">
+        <v>-101.1453670480004</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>880</v>
+      </c>
+      <c r="B442">
+        <v>169.57676879526241</v>
+      </c>
+      <c r="C442">
+        <v>-101.5307687952624</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>882</v>
+      </c>
+      <c r="B443">
+        <v>169.96217054252429</v>
+      </c>
+      <c r="C443">
+        <v>-101.9161705425243</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>884</v>
+      </c>
+      <c r="B444">
+        <v>170.34757228978631</v>
+      </c>
+      <c r="C444">
+        <v>-102.30157228978629</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>886</v>
+      </c>
+      <c r="B445">
+        <v>170.73297403704831</v>
+      </c>
+      <c r="C445">
+        <v>-102.6869740370482</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>888</v>
+      </c>
+      <c r="B446">
+        <v>171.11837578431019</v>
+      </c>
+      <c r="C446">
+        <v>-103.0723757843102</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>890</v>
+      </c>
+      <c r="B447">
+        <v>171.50377753157221</v>
+      </c>
+      <c r="C447">
+        <v>-103.45777753157221</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>892</v>
+      </c>
+      <c r="B448">
+        <v>171.88917927883409</v>
+      </c>
+      <c r="C448">
+        <v>-103.8431792788341</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>894</v>
+      </c>
+      <c r="B449">
+        <v>172.27458102609609</v>
+      </c>
+      <c r="C449">
+        <v>-104.22858102609609</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450">
+        <v>896</v>
+      </c>
+      <c r="B450">
+        <v>172.65998277335811</v>
+      </c>
+      <c r="C450">
+        <v>-104.6139827733581</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451">
+        <v>898</v>
+      </c>
+      <c r="B451">
+        <v>173.04538452061999</v>
+      </c>
+      <c r="C451">
+        <v>-104.99938452062</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452">
+        <v>900</v>
+      </c>
+      <c r="B452">
+        <v>173.43078626788201</v>
+      </c>
+      <c r="C452">
+        <v>-105.38478626788201</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453">
+        <v>902</v>
+      </c>
+      <c r="B453">
+        <v>173.81618801514401</v>
+      </c>
+      <c r="C453">
+        <v>-105.7701880151439</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454">
+        <v>904</v>
+      </c>
+      <c r="B454">
+        <v>174.20158976240589</v>
+      </c>
+      <c r="C454">
+        <v>-106.1555897624059</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455">
+        <v>906</v>
+      </c>
+      <c r="B455">
+        <v>174.58699150966791</v>
+      </c>
+      <c r="C455">
+        <v>-106.5409915096678</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456">
+        <v>908</v>
+      </c>
+      <c r="B456">
+        <v>174.97239325692979</v>
+      </c>
+      <c r="C456">
+        <v>-106.9263932569298</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457">
+        <v>910</v>
+      </c>
+      <c r="B457">
+        <v>175.35779500419179</v>
+      </c>
+      <c r="C457">
+        <v>-107.31179500419179</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458">
+        <v>912</v>
+      </c>
+      <c r="B458">
+        <v>175.74319675145381</v>
+      </c>
+      <c r="C458">
+        <v>-107.6971967514537</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459">
+        <v>914</v>
+      </c>
+      <c r="B459">
+        <v>176.12859849871569</v>
+      </c>
+      <c r="C459">
+        <v>-108.0825984987157</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460">
+        <v>916</v>
+      </c>
+      <c r="B460">
+        <v>176.51400024597771</v>
+      </c>
+      <c r="C460">
+        <v>-108.46800024597761</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461">
+        <v>918</v>
+      </c>
+      <c r="B461">
+        <v>176.89940199323959</v>
+      </c>
+      <c r="C461">
+        <v>-108.8534019932396</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A462">
+        <v>920</v>
+      </c>
+      <c r="B462">
+        <v>177.28480374050159</v>
+      </c>
+      <c r="C462">
+        <v>-109.2388037405016</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A463">
+        <v>922</v>
+      </c>
+      <c r="B463">
+        <v>177.67020548776361</v>
+      </c>
+      <c r="C463">
+        <v>-109.6242054877636</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A464">
+        <v>924</v>
+      </c>
+      <c r="B464">
+        <v>178.05560723502549</v>
+      </c>
+      <c r="C464">
+        <v>-110.0096072350255</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A465">
+        <v>926</v>
+      </c>
+      <c r="B465">
+        <v>178.44100898228751</v>
+      </c>
+      <c r="C465">
+        <v>-110.39500898228749</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A466">
+        <v>928</v>
+      </c>
+      <c r="B466">
+        <v>178.82641072954951</v>
+      </c>
+      <c r="C466">
+        <v>-110.7804107295494</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A467">
+        <v>930</v>
+      </c>
+      <c r="B467">
+        <v>179.21181247681139</v>
+      </c>
+      <c r="C467">
+        <v>-111.1658124768114</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A468">
+        <v>932</v>
+      </c>
+      <c r="B468">
+        <v>179.59721422407341</v>
+      </c>
+      <c r="C468">
+        <v>-111.55121422407331</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A469">
+        <v>934</v>
+      </c>
+      <c r="B469">
+        <v>179.98261597133529</v>
+      </c>
+      <c r="C469">
+        <v>-111.9366159713353</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A470">
+        <v>936</v>
+      </c>
+      <c r="B470">
+        <v>180.36801771859729</v>
+      </c>
+      <c r="C470">
+        <v>-112.32201771859729</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A471">
+        <v>938</v>
+      </c>
+      <c r="B471">
+        <v>180.75341946585931</v>
+      </c>
+      <c r="C471">
+        <v>-112.7074194658592</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A472">
+        <v>940</v>
+      </c>
+      <c r="B472">
+        <v>181.13882121312119</v>
+      </c>
+      <c r="C472">
+        <v>-113.0928212131212</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A473">
+        <v>942</v>
+      </c>
+      <c r="B473">
+        <v>181.52422296038321</v>
+      </c>
+      <c r="C473">
+        <v>-113.47822296038311</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A474">
+        <v>944</v>
+      </c>
+      <c r="B474">
+        <v>181.90962470764509</v>
+      </c>
+      <c r="C474">
+        <v>-113.8636247076451</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A475">
+        <v>946</v>
+      </c>
+      <c r="B475">
+        <v>182.29502645490709</v>
+      </c>
+      <c r="C475">
+        <v>-114.2490264549071</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A476">
+        <v>948</v>
+      </c>
+      <c r="B476">
+        <v>182.680428202169</v>
+      </c>
+      <c r="C476">
+        <v>-114.634428202169</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477">
+        <v>950</v>
+      </c>
+      <c r="B477">
+        <v>183.06582994943099</v>
+      </c>
+      <c r="C477">
+        <v>-115.019829949431</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A478">
+        <v>952</v>
+      </c>
+      <c r="B478">
+        <v>183.45123169669299</v>
+      </c>
+      <c r="C478">
+        <v>-115.40523169669299</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A479">
+        <v>954</v>
+      </c>
+      <c r="B479">
+        <v>183.8366334439549</v>
+      </c>
+      <c r="C479">
+        <v>-115.7906334439549</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A480">
+        <v>956</v>
+      </c>
+      <c r="B480">
+        <v>184.22203519121689</v>
+      </c>
+      <c r="C480">
+        <v>-116.1760351912169</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A481">
+        <v>958</v>
+      </c>
+      <c r="B481">
+        <v>184.6074369384788</v>
+      </c>
+      <c r="C481">
+        <v>-116.56143693847881</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A482">
+        <v>960</v>
+      </c>
+      <c r="B482">
+        <v>184.99283868574079</v>
+      </c>
+      <c r="C482">
+        <v>-116.9468386857408</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A483">
+        <v>962</v>
+      </c>
+      <c r="B483">
+        <v>185.37824043300279</v>
+      </c>
+      <c r="C483">
+        <v>-117.3322404330028</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A484">
+        <v>964</v>
+      </c>
+      <c r="B484">
+        <v>185.7636421802647</v>
+      </c>
+      <c r="C484">
+        <v>-117.7176421802647</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A485">
+        <v>966</v>
+      </c>
+      <c r="B485">
+        <v>186.14904392752669</v>
+      </c>
+      <c r="C485">
+        <v>-118.1030439275267</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A486">
+        <v>968</v>
+      </c>
+      <c r="B486">
+        <v>186.5344456747886</v>
+      </c>
+      <c r="C486">
+        <v>-118.48844567478859</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A487">
+        <v>970</v>
+      </c>
+      <c r="B487">
+        <v>186.91984742205059</v>
+      </c>
+      <c r="C487">
+        <v>-118.8738474220506</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A488">
+        <v>972</v>
+      </c>
+      <c r="B488">
+        <v>187.3052491693125</v>
+      </c>
+      <c r="C488">
+        <v>-119.2592491693125</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A489">
+        <v>974</v>
+      </c>
+      <c r="B489">
+        <v>187.6906509165745</v>
+      </c>
+      <c r="C489">
+        <v>-119.64465091657451</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A490">
+        <v>976</v>
+      </c>
+      <c r="B490">
+        <v>188.07605266383649</v>
+      </c>
+      <c r="C490">
+        <v>-120.0300526638365</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A491">
+        <v>978</v>
+      </c>
+      <c r="B491">
+        <v>188.4614544110984</v>
+      </c>
+      <c r="C491">
+        <v>-120.41545441109839</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A492">
+        <v>980</v>
+      </c>
+      <c r="B492">
+        <v>188.8468561583604</v>
+      </c>
+      <c r="C492">
+        <v>-120.8008561583604</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493">
+        <v>982</v>
+      </c>
+      <c r="B493">
+        <v>189.2322579056223</v>
+      </c>
+      <c r="C493">
+        <v>-121.1862579056223</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A494">
+        <v>984</v>
+      </c>
+      <c r="B494">
+        <v>189.6176596528843</v>
+      </c>
+      <c r="C494">
+        <v>-121.57165965288431</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A495">
+        <v>986</v>
+      </c>
+      <c r="B495">
+        <v>190.00306140014621</v>
+      </c>
+      <c r="C495">
+        <v>-121.9570614001462</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A496">
+        <v>988</v>
+      </c>
+      <c r="B496">
+        <v>190.3884631474082</v>
+      </c>
+      <c r="C496">
+        <v>-122.3424631474082</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A497">
+        <v>990</v>
+      </c>
+      <c r="B497">
+        <v>190.7738648946702</v>
+      </c>
+      <c r="C497">
+        <v>-122.7278648946702</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A498">
+        <v>992</v>
+      </c>
+      <c r="B498">
+        <v>191.15926664193219</v>
+      </c>
+      <c r="C498">
+        <v>-123.1132666419322</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A499">
+        <v>994</v>
+      </c>
+      <c r="B499">
+        <v>191.5446683891941</v>
+      </c>
+      <c r="C499">
+        <v>-123.49866838919409</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A500">
+        <v>996</v>
+      </c>
+      <c r="B500">
+        <v>191.9300701364561</v>
+      </c>
+      <c r="C500">
+        <v>-123.8840701364561</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A501">
+        <v>998</v>
+      </c>
+      <c r="B501">
+        <v>192.315471883718</v>
+      </c>
+      <c r="C501">
+        <v>-124.269471883718</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A502">
+        <v>1000</v>
+      </c>
+      <c r="B502">
+        <v>192.70087363098</v>
+      </c>
+      <c r="C502">
+        <v>-124.65487363098001</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A503">
+        <v>1002</v>
+      </c>
+      <c r="B503">
+        <v>193.08627537824191</v>
+      </c>
+      <c r="C503">
+        <v>-125.0402753782419</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A504">
+        <v>1004</v>
+      </c>
+      <c r="B504">
+        <v>193.4716771255039</v>
+      </c>
+      <c r="C504">
+        <v>-125.4256771255039</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A505">
+        <v>1006</v>
+      </c>
+      <c r="B505">
+        <v>193.8570788727659</v>
+      </c>
+      <c r="C505">
+        <v>-125.8110788727659</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506">
+        <v>1008</v>
+      </c>
+      <c r="B506">
+        <v>194.24248062002781</v>
+      </c>
+      <c r="C506">
+        <v>-126.1964806200278</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A507">
+        <v>1010</v>
+      </c>
+      <c r="B507">
+        <v>194.6278823672898</v>
+      </c>
+      <c r="C507">
+        <v>-126.58188236728979</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A508">
+        <v>1012</v>
+      </c>
+      <c r="B508">
+        <v>195.01328411455171</v>
+      </c>
+      <c r="C508">
+        <v>-126.9672841145517</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A509">
+        <v>1014</v>
+      </c>
+      <c r="B509">
+        <v>195.3986858618137</v>
+      </c>
+      <c r="C509">
+        <v>-127.3526858618137</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A510">
+        <v>1016</v>
+      </c>
+      <c r="B510">
+        <v>195.78408760907561</v>
+      </c>
+      <c r="C510">
+        <v>-127.73808760907561</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A511">
+        <v>1018</v>
+      </c>
+      <c r="B511">
+        <v>196.16948935633769</v>
+      </c>
+      <c r="C511">
+        <v>-128.12348935633759</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A512">
+        <v>1020</v>
+      </c>
+      <c r="B512">
+        <v>196.5548911035996</v>
+      </c>
+      <c r="C512">
+        <v>-128.50889110359961</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A513">
+        <v>1022</v>
+      </c>
+      <c r="B513">
+        <v>196.9402928508616</v>
+      </c>
+      <c r="C513">
+        <v>-128.8942928508616</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A514">
+        <v>1024</v>
+      </c>
+      <c r="B514">
+        <v>197.3256945981235</v>
+      </c>
+      <c r="C514">
+        <v>-129.27969459812351</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A515">
+        <v>1026</v>
+      </c>
+      <c r="B515">
+        <v>197.7110963453855</v>
+      </c>
+      <c r="C515">
+        <v>-129.66509634538551</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A516">
+        <v>1028</v>
+      </c>
+      <c r="B516">
+        <v>198.09649809264741</v>
+      </c>
+      <c r="C516">
+        <v>-130.05049809264739</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A517">
+        <v>1030</v>
+      </c>
+      <c r="B517">
+        <v>198.4818998399094</v>
+      </c>
+      <c r="C517">
+        <v>-130.43589983990941</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A518">
+        <v>1032</v>
+      </c>
+      <c r="B518">
+        <v>198.8673015871714</v>
+      </c>
+      <c r="C518">
+        <v>-130.8213015871714</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A519">
+        <v>1034</v>
+      </c>
+      <c r="B519">
+        <v>199.25270333443331</v>
+      </c>
+      <c r="C519">
+        <v>-131.20670333443331</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A520">
+        <v>1036</v>
+      </c>
+      <c r="B520">
+        <v>199.6381050816953</v>
+      </c>
+      <c r="C520">
+        <v>-131.59210508169531</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A521">
+        <v>1038</v>
+      </c>
+      <c r="B521">
+        <v>200.02350682895721</v>
+      </c>
+      <c r="C521">
+        <v>-131.97750682895719</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A522">
+        <v>1040</v>
+      </c>
+      <c r="B522">
+        <v>200.4089085762192</v>
+      </c>
+      <c r="C522">
+        <v>-132.36290857621921</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A523">
+        <v>1042</v>
+      </c>
+      <c r="B523">
+        <v>200.79431032348111</v>
+      </c>
+      <c r="C523">
+        <v>-132.74831032348109</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A524">
+        <v>1044</v>
+      </c>
+      <c r="B524">
+        <v>201.17971207074311</v>
+      </c>
+      <c r="C524">
+        <v>-133.13371207074309</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A525">
+        <v>1046</v>
+      </c>
+      <c r="B525">
+        <v>201.5651138180051</v>
+      </c>
+      <c r="C525">
+        <v>-133.51911381800511</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A526">
+        <v>1048</v>
+      </c>
+      <c r="B526">
+        <v>201.95051556526701</v>
+      </c>
+      <c r="C526">
+        <v>-133.90451556526699</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A527">
+        <v>1050</v>
+      </c>
+      <c r="B527">
+        <v>202.33591731252901</v>
+      </c>
+      <c r="C527">
+        <v>-134.28991731252901</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A528">
+        <v>1052</v>
+      </c>
+      <c r="B528">
+        <v>202.721319059791</v>
+      </c>
+      <c r="C528">
+        <v>-134.67531905979101</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A529">
+        <v>1054</v>
+      </c>
+      <c r="B529">
+        <v>203.10672080705291</v>
+      </c>
+      <c r="C529">
+        <v>-135.06072080705289</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A530">
+        <v>1056</v>
+      </c>
+      <c r="B530">
+        <v>203.4921225543149</v>
+      </c>
+      <c r="C530">
+        <v>-135.44612255431491</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A531">
+        <v>1058</v>
+      </c>
+      <c r="B531">
+        <v>203.87752430157681</v>
+      </c>
+      <c r="C531">
+        <v>-135.83152430157679</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A532">
+        <v>1060</v>
+      </c>
+      <c r="B532">
+        <v>204.26292604883881</v>
+      </c>
+      <c r="C532">
+        <v>-136.21692604883879</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A533">
+        <v>1062</v>
+      </c>
+      <c r="B533">
+        <v>204.6483277961008</v>
+      </c>
+      <c r="C533">
+        <v>-136.60232779610081</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A534">
+        <v>1064</v>
+      </c>
+      <c r="B534">
+        <v>205.03372954336271</v>
+      </c>
+      <c r="C534">
+        <v>-136.98772954336269</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A535">
+        <v>1066</v>
+      </c>
+      <c r="B535">
+        <v>205.4191312906247</v>
+      </c>
+      <c r="C535">
+        <v>-137.37313129062471</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A536">
+        <v>1068</v>
+      </c>
+      <c r="B536">
+        <v>205.80453303788661</v>
+      </c>
+      <c r="C536">
+        <v>-137.75853303788659</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A537">
+        <v>1070</v>
+      </c>
+      <c r="B537">
+        <v>206.18993478514861</v>
+      </c>
+      <c r="C537">
+        <v>-138.14393478514859</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A538">
+        <v>1072</v>
+      </c>
+      <c r="B538">
+        <v>206.57533653241049</v>
+      </c>
+      <c r="C538">
+        <v>-138.5293365324105</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A539">
+        <v>1074</v>
+      </c>
+      <c r="B539">
+        <v>206.96073827967251</v>
+      </c>
+      <c r="C539">
+        <v>-138.91473827967249</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A540">
+        <v>1076</v>
+      </c>
+      <c r="B540">
+        <v>207.34614002693451</v>
+      </c>
+      <c r="C540">
+        <v>-139.30014002693451</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A541">
+        <v>1078</v>
+      </c>
+      <c r="B541">
+        <v>207.73154177419639</v>
+      </c>
+      <c r="C541">
+        <v>-139.68554177419651</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A542">
+        <v>1080</v>
+      </c>
+      <c r="B542">
+        <v>208.11694352145841</v>
+      </c>
+      <c r="C542">
+        <v>-140.07094352145839</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A543">
+        <v>1082</v>
+      </c>
+      <c r="B543">
+        <v>208.50234526872029</v>
+      </c>
+      <c r="C543">
+        <v>-140.4563452687203</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A544">
+        <v>1084</v>
+      </c>
+      <c r="B544">
+        <v>208.88774701598231</v>
+      </c>
+      <c r="C544">
+        <v>-140.84174701598229</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A545">
+        <v>1086</v>
+      </c>
+      <c r="B545">
+        <v>209.27314876324431</v>
+      </c>
+      <c r="C545">
+        <v>-141.22714876324429</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A546">
+        <v>1088</v>
+      </c>
+      <c r="B546">
+        <v>209.65855051050619</v>
+      </c>
+      <c r="C546">
+        <v>-141.61255051050631</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A547">
+        <v>1090</v>
+      </c>
+      <c r="B547">
+        <v>210.04395225776821</v>
+      </c>
+      <c r="C547">
+        <v>-141.99795225776819</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A548">
+        <v>1092</v>
+      </c>
+      <c r="B548">
+        <v>210.42935400503009</v>
+      </c>
+      <c r="C548">
+        <v>-142.3833540050301</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A549">
+        <v>1094</v>
+      </c>
+      <c r="B549">
+        <v>210.81475575229209</v>
+      </c>
+      <c r="C549">
+        <v>-142.76875575229209</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A550">
+        <v>1096</v>
+      </c>
+      <c r="B550">
+        <v>211.20015749955411</v>
+      </c>
+      <c r="C550">
+        <v>-143.15415749955409</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A551">
+        <v>1098</v>
+      </c>
+      <c r="B551">
+        <v>211.58555924681599</v>
+      </c>
+      <c r="C551">
+        <v>-143.539559246816</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A552">
+        <v>1100</v>
+      </c>
+      <c r="B552">
+        <v>211.97096099407801</v>
+      </c>
+      <c r="C552">
+        <v>-143.92496099407799</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A553">
+        <v>1102</v>
+      </c>
+      <c r="B553">
+        <v>212.35636274134001</v>
+      </c>
+      <c r="C553">
+        <v>-144.3103627413399</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A554">
+        <v>1104</v>
+      </c>
+      <c r="B554">
+        <v>212.74176448860189</v>
+      </c>
+      <c r="C554">
+        <v>-144.6957644886019</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A555">
+        <v>1106</v>
+      </c>
+      <c r="B555">
+        <v>213.12716623586391</v>
+      </c>
+      <c r="C555">
+        <v>-145.08116623586389</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A556">
+        <v>1108</v>
+      </c>
+      <c r="B556">
+        <v>213.51256798312579</v>
+      </c>
+      <c r="C556">
+        <v>-145.4665679831258</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A557">
+        <v>1110</v>
+      </c>
+      <c r="B557">
+        <v>213.89796973038781</v>
+      </c>
+      <c r="C557">
+        <v>-145.85196973038779</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A558">
+        <v>1112</v>
+      </c>
+      <c r="B558">
+        <v>214.28337147764969</v>
+      </c>
+      <c r="C558">
+        <v>-146.2373714776497</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A559">
+        <v>1114</v>
+      </c>
+      <c r="B559">
+        <v>214.66877322491169</v>
+      </c>
+      <c r="C559">
+        <v>-146.6227732249117</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A560">
+        <v>1116</v>
+      </c>
+      <c r="B560">
+        <v>215.05417497217371</v>
+      </c>
+      <c r="C560">
+        <v>-147.00817497217369</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A561">
+        <v>1118</v>
+      </c>
+      <c r="B561">
+        <v>215.43957671943559</v>
+      </c>
+      <c r="C561">
+        <v>-147.39357671943571</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A562">
+        <v>1120</v>
+      </c>
+      <c r="B562">
+        <v>215.82497846669759</v>
+      </c>
+      <c r="C562">
+        <v>-147.77897846669759</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A563">
+        <v>1122</v>
+      </c>
+      <c r="B563">
+        <v>216.21038021395961</v>
+      </c>
+      <c r="C563">
+        <v>-148.1643802139595</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A564">
+        <v>1124</v>
+      </c>
+      <c r="B564">
+        <v>216.59578196122149</v>
+      </c>
+      <c r="C564">
+        <v>-148.5497819612215</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A565">
+        <v>1126</v>
+      </c>
+      <c r="B565">
+        <v>216.98118370848351</v>
+      </c>
+      <c r="C565">
+        <v>-148.93518370848349</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A566">
+        <v>1128</v>
+      </c>
+      <c r="B566">
+        <v>217.36658545574551</v>
+      </c>
+      <c r="C566">
+        <v>-149.32058545574549</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A567">
+        <v>1130</v>
+      </c>
+      <c r="B567">
+        <v>217.75198720300739</v>
+      </c>
+      <c r="C567">
+        <v>-149.7059872030074</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A568">
+        <v>1132</v>
+      </c>
+      <c r="B568">
+        <v>218.13738895026941</v>
+      </c>
+      <c r="C568">
+        <v>-150.09138895026931</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A569">
+        <v>1134</v>
+      </c>
+      <c r="B569">
+        <v>218.52279069753129</v>
+      </c>
+      <c r="C569">
+        <v>-150.4767906975313</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A570">
+        <v>1136</v>
+      </c>
+      <c r="B570">
+        <v>218.90819244479329</v>
+      </c>
+      <c r="C570">
+        <v>-150.86219244479329</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A571">
+        <v>1138</v>
+      </c>
+      <c r="B571">
+        <v>219.2935941920552</v>
+      </c>
+      <c r="C571">
+        <v>-151.2475941920552</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A572">
+        <v>1140</v>
+      </c>
+      <c r="B572">
+        <v>219.67899593931719</v>
+      </c>
+      <c r="C572">
+        <v>-151.63299593931711</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A573">
+        <v>1142</v>
+      </c>
+      <c r="B573">
+        <v>220.06439768657921</v>
+      </c>
+      <c r="C573">
+        <v>-152.01839768657919</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A574">
+        <v>1144</v>
+      </c>
+      <c r="B574">
+        <v>220.44979943384109</v>
+      </c>
+      <c r="C574">
+        <v>-152.4037994338411</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A575">
+        <v>1146</v>
+      </c>
+      <c r="B575">
+        <v>220.83520118110309</v>
+      </c>
+      <c r="C575">
+        <v>-152.7892011811031</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A576">
+        <v>1148</v>
+      </c>
+      <c r="B576">
+        <v>221.22060292836511</v>
+      </c>
+      <c r="C576">
+        <v>-153.17460292836509</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A577">
+        <v>1150</v>
+      </c>
+      <c r="B577">
+        <v>221.60600467562699</v>
+      </c>
+      <c r="C577">
+        <v>-153.560004675627</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A578">
+        <v>1152</v>
+      </c>
+      <c r="B578">
+        <v>221.99140642288901</v>
+      </c>
+      <c r="C578">
+        <v>-153.94540642288891</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A579">
+        <v>1154</v>
+      </c>
+      <c r="B579">
+        <v>222.37680817015089</v>
+      </c>
+      <c r="C579">
+        <v>-154.3308081701509</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A580">
+        <v>1156</v>
+      </c>
+      <c r="B580">
+        <v>222.76220991741289</v>
+      </c>
+      <c r="C580">
+        <v>-154.7162099174129</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A581">
+        <v>1158</v>
+      </c>
+      <c r="B581">
+        <v>223.1476116646748</v>
+      </c>
+      <c r="C581">
+        <v>-155.10161166467481</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A582">
+        <v>1160</v>
+      </c>
+      <c r="B582">
+        <v>223.53301341193679</v>
+      </c>
+      <c r="C582">
+        <v>-155.4870134119368</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A583">
+        <v>1162</v>
+      </c>
+      <c r="B583">
+        <v>223.91841515919879</v>
+      </c>
+      <c r="C583">
+        <v>-155.87241515919871</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A584">
+        <v>1164</v>
+      </c>
+      <c r="B584">
+        <v>224.3038169064607</v>
+      </c>
+      <c r="C584">
+        <v>-156.2578169064607</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A585">
+        <v>1166</v>
+      </c>
+      <c r="B585">
+        <v>224.68921865372269</v>
+      </c>
+      <c r="C585">
+        <v>-156.6432186537227</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A586">
+        <v>1168</v>
+      </c>
+      <c r="B586">
+        <v>225.0746204009846</v>
+      </c>
+      <c r="C586">
+        <v>-157.02862040098461</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>1170</v>
+      </c>
+      <c r="B587">
+        <v>225.46002214824659</v>
+      </c>
+      <c r="C587">
+        <v>-157.4140221482466</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A588">
+        <v>1172</v>
+      </c>
+      <c r="B588">
+        <v>225.84542389550859</v>
+      </c>
+      <c r="C588">
+        <v>-157.79942389550851</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A589">
+        <v>1174</v>
+      </c>
+      <c r="B589">
+        <v>226.2308256427705</v>
+      </c>
+      <c r="C589">
+        <v>-158.18482564277051</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A590">
+        <v>1176</v>
+      </c>
+      <c r="B590">
+        <v>226.61622739003249</v>
+      </c>
+      <c r="C590">
+        <v>-158.5702273900325</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A591">
+        <v>1178</v>
+      </c>
+      <c r="B591">
+        <v>227.0016291372944</v>
+      </c>
+      <c r="C591">
+        <v>-158.95562913729441</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A592">
+        <v>1180</v>
+      </c>
+      <c r="B592">
+        <v>227.3870308845564</v>
+      </c>
+      <c r="C592">
+        <v>-159.3410308845564</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A593">
+        <v>1182</v>
+      </c>
+      <c r="B593">
+        <v>227.7724326318183</v>
+      </c>
+      <c r="C593">
+        <v>-159.72643263181831</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A594">
+        <v>1184</v>
+      </c>
+      <c r="B594">
+        <v>228.1578343790803</v>
+      </c>
+      <c r="C594">
+        <v>-160.11183437908031</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A595">
+        <v>1186</v>
+      </c>
+      <c r="B595">
+        <v>228.54323612634229</v>
+      </c>
+      <c r="C595">
+        <v>-160.4972361263423</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A596">
+        <v>1188</v>
+      </c>
+      <c r="B596">
+        <v>228.9286378736042</v>
+      </c>
+      <c r="C596">
+        <v>-160.88263787360421</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A597">
+        <v>1190</v>
+      </c>
+      <c r="B597">
+        <v>229.3140396208662</v>
+      </c>
+      <c r="C597">
+        <v>-161.2680396208662</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A598">
+        <v>1192</v>
+      </c>
+      <c r="B598">
+        <v>229.69944136812811</v>
+      </c>
+      <c r="C598">
+        <v>-161.65344136812811</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A599">
+        <v>1194</v>
+      </c>
+      <c r="B599">
+        <v>230.0848431153901</v>
+      </c>
+      <c r="C599">
+        <v>-162.03884311539011</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A600">
+        <v>1196</v>
+      </c>
+      <c r="B600">
+        <v>230.47024486265201</v>
+      </c>
+      <c r="C600">
+        <v>-162.42424486265199</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A601">
+        <v>1198</v>
+      </c>
+      <c r="B601">
+        <v>230.855646609914</v>
+      </c>
+      <c r="C601">
+        <v>-162.80964660991401</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A602">
+        <v>1200</v>
+      </c>
+      <c r="B602">
+        <v>231.241048357176</v>
+      </c>
+      <c r="C602">
+        <v>-163.19504835717601</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A603">
+        <v>1202</v>
+      </c>
+      <c r="B603">
+        <v>231.62645010443799</v>
+      </c>
+      <c r="C603">
+        <v>-163.58045010443789</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A604">
+        <v>1204</v>
+      </c>
+      <c r="B604">
+        <v>232.0118518516999</v>
+      </c>
+      <c r="C604">
+        <v>-163.96585185169991</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A605">
+        <v>1206</v>
+      </c>
+      <c r="B605">
+        <v>232.3972535989619</v>
+      </c>
+      <c r="C605">
+        <v>-164.3512535989619</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A606">
+        <v>1208</v>
+      </c>
+      <c r="B606">
+        <v>232.78265534622381</v>
+      </c>
+      <c r="C606">
+        <v>-164.73665534622381</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A607">
+        <v>1210</v>
+      </c>
+      <c r="B607">
+        <v>233.1680570934858</v>
+      </c>
+      <c r="C607">
+        <v>-165.12205709348581</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A608">
+        <v>1212</v>
+      </c>
+      <c r="B608">
+        <v>233.55345884074779</v>
+      </c>
+      <c r="C608">
+        <v>-165.50745884074769</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A609">
+        <v>1214</v>
+      </c>
+      <c r="B609">
+        <v>233.9388605880097</v>
+      </c>
+      <c r="C609">
+        <v>-165.89286058800971</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A610">
+        <v>1216</v>
+      </c>
+      <c r="B610">
+        <v>234.3242623352717</v>
+      </c>
+      <c r="C610">
+        <v>-166.27826233527171</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A611">
+        <v>1218</v>
+      </c>
+      <c r="B611">
+        <v>234.70966408253361</v>
+      </c>
+      <c r="C611">
+        <v>-166.66366408253359</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A612">
+        <v>1220</v>
+      </c>
+      <c r="B612">
+        <v>235.0950658297956</v>
+      </c>
+      <c r="C612">
+        <v>-167.04906582979561</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A613">
+        <v>1222</v>
+      </c>
+      <c r="B613">
+        <v>235.48046757705751</v>
+      </c>
+      <c r="C613">
+        <v>-167.43446757705749</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A614">
+        <v>1224</v>
+      </c>
+      <c r="B614">
+        <v>235.8658693243195</v>
+      </c>
+      <c r="C614">
+        <v>-167.81986932431951</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A615">
+        <v>1226</v>
+      </c>
+      <c r="B615">
+        <v>236.2512710715815</v>
+      </c>
+      <c r="C615">
+        <v>-168.20527107158151</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A616">
+        <v>1228</v>
+      </c>
+      <c r="B616">
+        <v>236.63667281884341</v>
+      </c>
+      <c r="C616">
+        <v>-168.59067281884339</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A617">
+        <v>1230</v>
+      </c>
+      <c r="B617">
+        <v>237.0220745661054</v>
+      </c>
+      <c r="C617">
+        <v>-168.97607456610541</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A618">
+        <v>1232</v>
+      </c>
+      <c r="B618">
+        <v>237.40747631336731</v>
+      </c>
+      <c r="C618">
+        <v>-169.36147631336729</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A619">
+        <v>1234</v>
+      </c>
+      <c r="B619">
+        <v>237.79287806062931</v>
+      </c>
+      <c r="C619">
+        <v>-169.74687806062931</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A620">
+        <v>1236</v>
+      </c>
+      <c r="B620">
+        <v>238.17827980789119</v>
+      </c>
+      <c r="C620">
+        <v>-170.13227980789119</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A621">
+        <v>1238</v>
+      </c>
+      <c r="B621">
+        <v>238.56368155515321</v>
+      </c>
+      <c r="C621">
+        <v>-170.51768155515319</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A622">
+        <v>1240</v>
+      </c>
+      <c r="B622">
+        <v>238.9490833024152</v>
+      </c>
+      <c r="C622">
+        <v>-170.90308330241521</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A623">
+        <v>1242</v>
+      </c>
+      <c r="B623">
+        <v>239.3344850496772</v>
+      </c>
+      <c r="C623">
+        <v>-171.28848504967709</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A624">
+        <v>1244</v>
+      </c>
+      <c r="B624">
+        <v>239.71988679693911</v>
+      </c>
+      <c r="C624">
+        <v>-171.67388679693909</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A625">
+        <v>1246</v>
+      </c>
+      <c r="B625">
+        <v>240.1052885442011</v>
+      </c>
+      <c r="C625">
+        <v>-172.05928854420111</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A626">
+        <v>1248</v>
+      </c>
+      <c r="B626">
+        <v>240.49069029146301</v>
+      </c>
+      <c r="C626">
+        <v>-172.44469029146299</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A627">
+        <v>1250</v>
+      </c>
+      <c r="B627">
+        <v>240.87609203872501</v>
+      </c>
+      <c r="C627">
+        <v>-172.83009203872501</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A628">
+        <v>1252</v>
+      </c>
+      <c r="B628">
+        <v>241.26149378598689</v>
+      </c>
+      <c r="C628">
+        <v>-173.21549378598701</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A629">
+        <v>1254</v>
+      </c>
+      <c r="B629">
+        <v>241.64689553324891</v>
+      </c>
+      <c r="C629">
+        <v>-173.60089553324889</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A630">
+        <v>1256</v>
+      </c>
+      <c r="B630">
+        <v>242.0322972805109</v>
+      </c>
+      <c r="C630">
+        <v>-173.98629728051091</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A631">
+        <v>1258</v>
+      </c>
+      <c r="B631">
+        <v>242.41769902777281</v>
+      </c>
+      <c r="C631">
+        <v>-174.37169902777279</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>1260</v>
+      </c>
+      <c r="B632">
+        <v>242.80310077503481</v>
+      </c>
+      <c r="C632">
+        <v>-174.75710077503479</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>1262</v>
+      </c>
+      <c r="B633">
+        <v>243.18850252229669</v>
+      </c>
+      <c r="C633">
+        <v>-175.14250252229681</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>1264</v>
+      </c>
+      <c r="B634">
+        <v>243.57390426955871</v>
+      </c>
+      <c r="C634">
+        <v>-175.52790426955869</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>1266</v>
+      </c>
+      <c r="B635">
+        <v>243.95930601682059</v>
+      </c>
+      <c r="C635">
+        <v>-175.9133060168206</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>1268</v>
+      </c>
+      <c r="B636">
+        <v>244.34470776408261</v>
+      </c>
+      <c r="C636">
+        <v>-176.29870776408259</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>1270</v>
+      </c>
+      <c r="B637">
+        <v>244.73010951134461</v>
+      </c>
+      <c r="C637">
+        <v>-176.68410951134459</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>1272</v>
+      </c>
+      <c r="B638">
+        <v>245.1155112586066</v>
+      </c>
+      <c r="C638">
+        <v>-177.06951125860661</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>1274</v>
+      </c>
+      <c r="B639">
+        <v>245.50091300586851</v>
+      </c>
+      <c r="C639">
+        <v>-177.45491300586849</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>1276</v>
+      </c>
+      <c r="B640">
+        <v>245.88631475313051</v>
+      </c>
+      <c r="C640">
+        <v>-177.84031475313051</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>1278</v>
+      </c>
+      <c r="B641">
+        <v>246.27171650039239</v>
+      </c>
+      <c r="C641">
+        <v>-178.22571650039239</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A642">
         <v>1280</v>
       </c>
-      <c r="B130">
+      <c r="B642">
         <v>246.65711824765441</v>
       </c>
-      <c r="C130">
+      <c r="C642">
         <v>-178.61111824765439</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>1282</v>
+      </c>
+      <c r="B643">
+        <v>247.04251999491629</v>
+      </c>
+      <c r="C643">
+        <v>-178.99651999491641</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>1284</v>
+      </c>
+      <c r="B644">
+        <v>247.42792174217831</v>
+      </c>
+      <c r="C644">
+        <v>-179.38192174217829</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>1286</v>
+      </c>
+      <c r="B645">
+        <v>247.81332348944031</v>
+      </c>
+      <c r="C645">
+        <v>-179.76732348944029</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>1288</v>
+      </c>
+      <c r="B646">
+        <v>248.19872523670219</v>
+      </c>
+      <c r="C646">
+        <v>-180.1527252367022</v>
       </c>
     </row>
   </sheetData>
